--- a/Process Results/Unified_IBNP_PEN.xlsx
+++ b/Process Results/Unified_IBNP_PEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0E3345-6DE9-497E-B8A9-F72D37AF1CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C6D435-CA74-44ED-8238-CEA605ECC521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_PEN.xlsx
+++ b/Process Results/Unified_IBNP_PEN.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05555526409744539</v>
+        <v>0.1044390444430706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06758686975449182</v>
+        <v>0.09398384124700813</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0737681477554185</v>
+        <v>0.08481778863059361</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06098329274113628</v>
+        <v>0.09893599257756948</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4128429283825978</v>
+        <v>0.6033543584322595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4681057326373999</v>
+        <v>0.5573955593132026</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.507350124408938</v>
+        <v>0.4340533812266668</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4387409845902897</v>
+        <v>0.5794651112026281</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6243163373708743</v>
+        <v>0.7547238618965354</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6462377595220956</v>
+        <v>0.7123055028712824</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6618370485859163</v>
+        <v>0.5790649059883111</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6350879385336102</v>
+        <v>0.7329014304526226</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7205801121320092</v>
+        <v>0.7913751136833153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7233666240877116</v>
+        <v>0.7704108999004717</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7653366972638095</v>
+        <v>0.6973699210681666</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7219706794203524</v>
+        <v>0.7807523030540862</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7791248411922396</v>
+        <v>0.8011882597307453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7778753827287731</v>
+        <v>0.7963292905553411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.834796369060781</v>
+        <v>0.7831796028547983</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7784996106290267</v>
+        <v>0.7987513856838653</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8638695155271995</v>
+        <v>0.8774531971448704</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8663217544811896</v>
+        <v>0.8863247440153539</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8980183732083252</v>
+        <v>0.8555746673047215</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8650938971975164</v>
+        <v>0.8818666592839909</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8917300609301707</v>
+        <v>0.8978892060660768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8858882382169075</v>
+        <v>0.9058522254139569</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9126216037027434</v>
+        <v>0.8775138717316785</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8887995505238923</v>
+        <v>0.9018531384764391</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.903665975308253</v>
+        <v>0.913093085100831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9012896738454813</v>
+        <v>0.9336692970701006</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9243814301956444</v>
+        <v>0.9178065126698757</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9024762603255115</v>
+        <v>0.9232665633176783</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9558193388251721</v>
+        <v>0.9296500287009476</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9302056757585214</v>
+        <v>0.9467802726622768</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9420263555366735</v>
+        <v>0.9491135008869438</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9428385807185991</v>
+        <v>0.9381369582600867</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9699237650946148</v>
+        <v>0.9719879278233207</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9544608027403019</v>
+        <v>0.9683305694374678</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9563737879969393</v>
+        <v>0.965156279311829</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.962130159327403</v>
+        <v>0.9701558017039279</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9701118572110431</v>
+        <v>0.9721293973375064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9634975013465451</v>
+        <v>0.9712686491833309</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9675902362579847</v>
+        <v>0.9721839757505729</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.966793366315473</v>
+        <v>0.9716988326439399</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9790245287633937</v>
+        <v>0.9814294438717562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9687527966171651</v>
+        <v>0.9856473027040611</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9738928464489772</v>
+        <v>0.9826295174667498</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.973861578361925</v>
+        <v>0.9835338512647694</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.998446867903941</v>
+        <v>0.9816621008086638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9844728055810683</v>
+        <v>0.9935394764780355</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9841893332303833</v>
+        <v>0.9991720194727033</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9914105976279771</v>
+        <v>0.9875650778444079</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9991119329169166</v>
+        <v>0.9817760028981166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9860574462540987</v>
+        <v>0.9936636986455695</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9875264986809966</v>
+        <v>0.9994951661124156</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9925417663911904</v>
+        <v>0.9876840822009081</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9934968901199436</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9873243892035863</v>
+        <v>0.9992274532407809</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9882293393486385</v>
+        <v>0.995775081561443</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9930221990481621</v>
+        <v>0.996353931866915</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9887450268843537</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9891263645059838</v>
+        <v>0.9906525107313167</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.993740226393506</v>
+        <v>0.992358145932797</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9892517449370982</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9895039554971304</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9939960866254268</v>
+        <v>0.992358145932797</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9910206358215485</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9910206358215485</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9948882420043673</v>
+        <v>0.992358145932797</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9923568065431495</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9923568065431495</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9955611003169624</v>
+        <v>0.9938883710448027</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9937194529365778</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9937194529365778</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9962463616051364</v>
+        <v>0.9938883710448027</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4487,20 +4487,20 @@
         <v/>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="H27" s="4">
         <f>+I27/I28</f>
         <v/>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="J27" s="5">
         <f>I27</f>
@@ -4525,20 +4525,20 @@
         <v/>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="H28" s="4">
         <f>+I28/I29</f>
         <v/>
       </c>
       <c r="I28" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="J28" s="5">
         <f>I28</f>
@@ -4563,20 +4563,20 @@
         <v/>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="H29" s="4">
         <f>+I29/I30</f>
         <v/>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="J29" s="5">
         <f>I29</f>
@@ -4833,46 +4833,46 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>8.331798836385779</v>
+        <v>6.177402056652578</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.161956868435342</v>
+        <v>1.338073563384538</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.019229217772746</v>
+        <v>1.108202451819412</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.007405571417982</v>
+        <v>1.198759609976451</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.002701574334162</v>
+        <v>1.001519535645227</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.029528177044881</v>
+        <v>1.003487202387913</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>0.9986557720127411</v>
+        <v>1.047537912906255</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.003450674011742</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.000639164464644</v>
+        <v>1.000577897343603</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000327418834785</v>
+        <v>1.000170052615622</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.001189478891211</v>
+        <v>1.000306629917684</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.001468583457642</v>
+        <v>1.05227800362224</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.000057720835105</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>0.9505854101298049</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>1</v>
@@ -4884,22 +4884,22 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>1.013985470660793</v>
       </c>
       <c r="T38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1.022714082237182</v>
+        <v>1.000247511687554</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1.003933876264903</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4908,64 +4908,64 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>9.993558615691247</v>
+        <v>7.294047282211322</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.253384133102587</v>
+        <v>1.205414591898852</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.072269937474425</v>
+        <v>1.298806707823755</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.054884464011054</v>
+        <v>1.043077626569966</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.027421519376871</v>
+        <v>1.044769449962159</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.001044334261025</v>
+        <v>1.032127581984188</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.000067922819161</v>
+        <v>1.003316655183672</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000820607932442</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001198517036079</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000439740095597</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.000849366122647</v>
+        <v>1.034695357414224</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.002226731338629</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.002622958456754</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1.006858134804167</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>1.001981935902629</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
@@ -4983,58 +4983,58 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>8.560628419939144</v>
+        <v>5.686325123490669</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.1762628222912</v>
+        <v>1.207407276143882</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.087660163089968</v>
+        <v>1.179770902142683</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.139455840831953</v>
+        <v>1.009452942140234</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.025136623131841</v>
+        <v>1.293378488682014</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.022995770376536</v>
+        <v>1.003329019926884</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.025758663032189</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.001154294710089</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.000252358328838</v>
+        <v>1.002751609180167</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.045704468307738</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.001462336766111</v>
+        <v>1.005133271619889</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.9992439922562544</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.021057980928091</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>1.002104167096849</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.002463729829016</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1.006475154863052</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5058,55 +5058,55 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>4.292951011697501</v>
+        <v>8.182026477414103</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.233647366198078</v>
+        <v>1.387404374960884</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.075912831719316</v>
+        <v>1.035447051216654</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.050193938365652</v>
+        <v>1.12773790101191</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.05912628842266</v>
+        <v>1.000464321303408</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.028734325375821</v>
+        <v>1.002138352045667</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.000370080911746</v>
+        <v>1.001238679604591</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.048062583577592</v>
+        <v>1.000666554669694</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000996879378769</v>
+        <v>1.044791381878881</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000358196740292</v>
+        <v>1.037752998177946</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.033920542201242</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.024160146577139</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.000305083310573</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.001151413095823</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>1.000152845538795</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1.00692390140225</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>1</v>
@@ -5133,43 +5133,43 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>11.42668842339413</v>
+        <v>6.925318404581144</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.225407314226823</v>
+        <v>1.181005789505823</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.059167296062128</v>
+        <v>1.072655531983377</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.031005891241297</v>
+        <v>1.002326281176195</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.013541818203784</v>
+        <v>1.07810576210833</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.001155457020128</v>
+        <v>1.055353706612803</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.108042873963416</v>
+        <v>1.001238937891171</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.002359409207516</v>
+        <v>1.152172649680113</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.000232686690623</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.025372331028997</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.003339839562639</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.000773029226203</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.002034167610429</v>
+        <v>1.002330004475662</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
@@ -5208,28 +5208,28 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>20.13844540128304</v>
+        <v>7.956230194840815</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.168648976855142</v>
+        <v>1.421796342292386</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.054624111424953</v>
+        <v>1.053535465334537</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.037947005502953</v>
+        <v>1.102005125044812</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.0362269792435</v>
+        <v>1.045898920506687</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.035725682539586</v>
+        <v>1.004560028115201</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.002247062428554</v>
+        <v>1.040408700937261</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.006239649641069</v>
+        <v>1.001402794079899</v>
       </c>
       <c r="J43" s="4" t="n">
         <v>1</v>
@@ -5238,19 +5238,19 @@
         <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.001719774980693</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.097047081187255</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.000070177807649</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.010394918952496</v>
+        <v>0.9467258928527589</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,46 +5283,46 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>9.218392706811821</v>
+        <v>9.918716799373149</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.227902044210351</v>
+        <v>1.182373037042545</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.122378813703695</v>
+        <v>1.156327877443073</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.035391258349559</v>
+        <v>1.001596335113679</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.121432347036249</v>
+        <v>1.287755890960496</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.031863334996416</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.013327820451307</v>
+        <v>1.002192432214325</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.002247443406769</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.025882177028705</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000584261183475</v>
+        <v>1.001133102847983</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.033731050867326</v>
+        <v>1.046941698735971</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.007546942079309</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>1</v>
@@ -5358,46 +5358,46 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>10.50482730294824</v>
+        <v>4.597432083016995</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.129745115595297</v>
+        <v>1.196553924445357</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.057801041367448</v>
+        <v>1.176512826864016</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.119253227002019</v>
+        <v>1.104711550844658</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.000871095417103</v>
+        <v>1.013211518357779</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.002207969719273</v>
+        <v>1.054142740155968</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.033244196449387</v>
+        <v>0.9988264239219699</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.027806133556098</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.026686332687327</v>
+        <v>1.028693987418527</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.006028435371039</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.000043933648497</v>
+        <v>1.064537684188103</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00306928047863</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.007443336017678</v>
+        <v>1.000345457449509</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>1.001852190114346</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>6.008253939527128</v>
+        <v>7.574017847779515</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.13809448761297</v>
+        <v>1.206869632841791</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.025343401123848</v>
+        <v>1.025116549432065</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.010771016734659</v>
+        <v>1.133846562152097</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.154089637808748</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.062046625060951</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.00135316839338</v>
+        <v>1.038732856937727</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.141588353381399</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.000594113924968</v>
+        <v>1.001907536125266</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.029197341851213</v>
+        <v>1.000230248797276</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.000312271062106</v>
+        <v>1.001885271918783</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.001077729237481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.002098012454765</v>
+        <v>1.000356684770014</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9989256849387715</v>
+        <v>1.032225150234663</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>1.000915274241052</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,40 +5508,40 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>4.272799835010257</v>
+        <v>7.145453232152417</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.476572597938722</v>
+        <v>1.589201711828013</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.19252383603374</v>
+        <v>1.305638974802606</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.257895605771812</v>
+        <v>1.049563222791626</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.00299974698524</v>
+        <v>1.043012323444197</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.005870928793904</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.205724449042592</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.000986324841849</v>
+        <v>1.01384206931261</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.102840903381876</v>
+        <v>1.000249277491463</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.000117542299705</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.005088525314924</v>
+        <v>1.001760786503191</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.000652070956852</v>
+        <v>1.000185065156398</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5583,40 +5583,40 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>71.73321720858218</v>
+        <v>7.697706118470323</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.136733184374165</v>
+        <v>1.922431095304499</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.411693499986776</v>
+        <v>1.173628000819364</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.040627541518169</v>
+        <v>1.000552813038083</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.126435630195464</v>
+        <v>1.037116060800919</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.000168227776721</v>
+        <v>1.05731547056427</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.000749829598151</v>
+        <v>1.098990520730768</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.032514536511348</v>
+        <v>1.0530114559224</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.00034320757317</v>
+        <v>1.001679569963963</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.031709150211503</v>
+        <v>1.016554781430028</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.9987904656572741</v>
+        <v>1.028312191864608</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.000033660235125</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>6.177402056652578</v>
+        <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.338073563384538</v>
+        <v>1.441188082141694</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.108202451819412</v>
+        <v>1.067519703512068</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.198759609976451</v>
+        <v>1.035220419953365</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.001519535645227</v>
+        <v>1.003664169870631</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.003487202387913</v>
+        <v>1.027268176713055</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.047537912906255</v>
+        <v>1.09533042315404</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.001161919207601</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.000577897343603</v>
+        <v>1.00167233118838</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.000170052615622</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.000306629917684</v>
+        <v>1.000275258727036</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.05227800362224</v>
+        <v>1.000565317165559</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>7.294047282211322</v>
+        <v>3.860099902933894</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.205414591898852</v>
+        <v>1.140639405139219</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.298806707823755</v>
+        <v>1.00913339160856</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.043077626569966</v>
+        <v>1.038879702341573</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.044769449962159</v>
+        <v>1.352542204196834</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.032127581984188</v>
+        <v>1.007879804330739</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.003316655183672</v>
+        <v>1.029454502512536</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000820607932442</v>
+        <v>0.9824442001690609</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.001198517036079</v>
+        <v>1.105277873462036</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.000439740095597</v>
+        <v>1.00036071105675</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.034695357414224</v>
+        <v>1.000503038312295</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,31 +5808,31 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>5.686325123490669</v>
+        <v>1.279841653158667</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.207407276143882</v>
+        <v>1.140852108732176</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.179770902142683</v>
+        <v>2.970010497458709</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.009452942140234</v>
+        <v>8.947628589155489</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.293378488682014</v>
+        <v>1.268726185171376</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.003329019926884</v>
+        <v>1.047714212884379</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.004453514002347</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.036979639913576</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.002751609180167</v>
+        <v>1.000754104935529</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>1</v>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>8.182026477414103</v>
+        <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.387404374960884</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.035447051216654</v>
+        <v>183.3989189860835</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.12773790101191</v>
+        <v>1.093627381402844</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.000464321303408</v>
+        <v>1.055045013344171</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.002138352045667</v>
+        <v>1.009124266532632</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.001238679604591</v>
+        <v>1.003965483131422</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.000666554669694</v>
+        <v>1.000884145369611</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.044791381878881</v>
+        <v>1.004734149603297</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>6.925318404581144</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.181005789505823</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.072655531983377</v>
+        <v>1.267459169296615</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.002326281176195</v>
+        <v>1.051434787365292</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.07810576210833</v>
+        <v>1.056782678054812</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.055353706612803</v>
+        <v>1.010769823923822</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.001238937891171</v>
+        <v>1.039951391408865</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.152172649680113</v>
+        <v>1.011403140657206</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>7.956230194840815</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.421796342292386</v>
+        <v>1.345194539230278</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.053535465334537</v>
+        <v>1.032067610383686</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.102005125044812</v>
+        <v>1.011352232957571</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.045898920506687</v>
+        <v>1.101195942071213</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.004560028115201</v>
+        <v>1.04501688196924</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.040408700937261</v>
+        <v>1.004493997575568</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>9.918716799373149</v>
+        <v>17.70351036008852</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.182373037042545</v>
+        <v>1.143596637204041</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.156327877443073</v>
+        <v>1.022888229230062</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.001596335113679</v>
+        <v>1.01613243997387</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.287755890960496</v>
+        <v>1.022269861527358</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.031863334996416</v>
+        <v>1.007534947615398</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>4.597432083016995</v>
+        <v>6.661539000630738</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.196553924445357</v>
+        <v>1.442360091948219</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.176512826864016</v>
+        <v>1.060675904964483</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.104711550844658</v>
+        <v>1.007900814966292</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.013211518357779</v>
+        <v>1.151136516275391</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>7.574017847779515</v>
+        <v>3.953811878227237</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.206869632841791</v>
+        <v>1.368482888070624</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.025116549432065</v>
+        <v>1.029977971958617</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.133846562152097</v>
+        <v>1.013230129242613</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>7.145453232152417</v>
+        <v>5.688359803076239</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.589201711828013</v>
+        <v>1.109420107024667</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.305638974802606</v>
+        <v>1.063526839921284</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>7.697706118470323</v>
+        <v>4.925782017374259</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.922431095304499</v>
+        <v>1.254838471336082</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>9.608803814525603</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07485931828352664</v>
+        <v>0.07851784818617465</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.0737681477554185</v>
+        <v>0.08481778863059361</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.06758686975449182</v>
+        <v>0.09398384124700813</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.05555526409744539</v>
+        <v>0.1044390444430706</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0491420761808532</v>
+        <v>0.006091018482055404</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.06809717311703647</v>
+        <v>0.003138206141390541</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06066611935770377</v>
+        <v>0.06970351244661922</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.05283353298244005</v>
+        <v>0.09124963304269718</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.06098329274113628</v>
+        <v>0.09893599257756948</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>7.578066050792758</v>
+        <v>6.165477424650589</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.877631333391744</v>
+        <v>5.117480521887888</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>6.925986280142669</v>
+        <v>5.930759499904423</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>7.431211696851276</v>
+        <v>5.777095737036794</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>11.07437442369334</v>
+        <v>6.991390739473589</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>7.195879601816639</v>
+        <v>6.710218553751893</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>7.386665216158481</v>
+        <v>8.090301145653767</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>7.421579675311371</v>
+        <v>6.740981878325367</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>7.178598988496972</v>
+        <v>5.853927618470609</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5672888584698829</v>
+        <v>0.484100020424002</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.507350124408938</v>
+        <v>0.4340533812266668</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.4681057326373999</v>
+        <v>0.5573955593132026</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4128429283825978</v>
+        <v>0.6033543584322595</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.5442177515844304</v>
+        <v>0.04258469020940463</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.4900190589742592</v>
+        <v>0.02105804907545695</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.4481203136588691</v>
+        <v>0.5639224066029751</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.39210827455737</v>
+        <v>0.6151121227446612</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.4387409845902897</v>
+        <v>0.5794651112026281</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.25257301642299</v>
+        <v>1.301587957106769</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.304497657031138</v>
+        <v>1.334086845152159</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.38053801623207</v>
+        <v>1.277917433983422</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.512236965803846</v>
+        <v>1.250879937053228</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.280313011385875</v>
+        <v>1.311255183523779</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.331272043668561</v>
+        <v>1.33090034261315</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.419870957292432</v>
+        <v>1.277315455802319</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.572834146658101</v>
+        <v>1.244247155477124</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.446387491017958</v>
+        <v>1.264398685518325</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.710570716636776</v>
+        <v>0.630098756619022</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6618370485859163</v>
+        <v>0.5790649059883111</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.6462377595220956</v>
+        <v>0.7123055028712824</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6243163373708743</v>
+        <v>0.7547238618965354</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6967690683807122</v>
+        <v>0.05583939577583613</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.6523486740772072</v>
+        <v>0.02802616472929018</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.6362730187370035</v>
+        <v>0.7203068058272195</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6167212834110215</v>
+        <v>0.7653515090245405</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6350879385336102</v>
+        <v>0.7329014304526226</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.109636616163191</v>
+        <v>1.159152283688344</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.156382373726329</v>
+        <v>1.204303548456179</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.119350600346619</v>
+        <v>1.081573702287808</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.154190702691718</v>
+        <v>1.048562465872855</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.123362785172439</v>
+        <v>9.881324792576148</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.168019306240225</v>
+        <v>16.4501204400033</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.131631204309946</v>
+        <v>1.079432620959125</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.169089450366229</v>
+        <v>1.051393572281461</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.136770651519169</v>
+        <v>1.065068084080331</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.788475285553486</v>
+        <v>0.7303804126841256</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7653366972638095</v>
+        <v>0.6973699210681666</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7233666240877116</v>
+        <v>0.7704108999004717</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7205801121320092</v>
+        <v>0.7913751136833153</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.7827244412781623</v>
+        <v>0.5517672058822414</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7619558457223899</v>
+        <v>0.4610337852681958</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7200264024632799</v>
+        <v>0.7775226633087707</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7210023462521463</v>
+        <v>0.8046856571243188</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7219706794203524</v>
+        <v>0.7807523030540862</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.076933577511776</v>
+        <v>1.102488746195574</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.090757011973031</v>
+        <v>1.123047580909708</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.07535426272923</v>
+        <v>1.033642294856183</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.081246662341279</v>
+        <v>1.012400119586471</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.075417264738856</v>
+        <v>1.449451823360931</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.086067341504554</v>
+        <v>1.699947424611726</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.078703959223892</v>
+        <v>1.032279630984747</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.080051482703478</v>
+        <v>1.012421128060925</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.078300462535255</v>
+        <v>1.023021207221327</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8491355100507346</v>
+        <v>0.8052361854259278</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.834796369060781</v>
+        <v>0.7831796028547983</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7778753827287731</v>
+        <v>0.7963292905553411</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7791248411922396</v>
+        <v>0.8011882597307453</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8417553776836104</v>
+        <v>0.7997599826367811</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8275353597075699</v>
+        <v>0.7837331959256649</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.7766953310828753</v>
+        <v>0.8026208079626556</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.7787196531023171</v>
+        <v>0.8146807607202496</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7784996106290267</v>
+        <v>0.7987513856838653</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.06140723424099</v>
+        <v>1.092537926443359</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.075733444095683</v>
+        <v>1.09243737220177</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.113702494919107</v>
+        <v>1.11301286355705</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.108769057093958</v>
+        <v>1.095189784033724</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.070267744614828</v>
+        <v>1.097715518014895</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.087458333161055</v>
+        <v>1.092058539426223</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.119802483653119</v>
+        <v>1.109192699407387</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.115622109941654</v>
+        <v>1.091534106624654</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.111235776006533</v>
+        <v>1.104101323795387</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9012785732187629</v>
+        <v>0.8797510723224029</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8980183732083252</v>
+        <v>0.8555746673047215</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8663217544811896</v>
+        <v>0.8863247440153539</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8638695155271995</v>
+        <v>0.8774531971448704</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9009036295908401</v>
+        <v>0.8779089436277175</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8999102228994279</v>
+        <v>0.8558825292424278</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8697453607883854</v>
+        <v>0.8902611405846356</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8687568624470399</v>
+        <v>0.8892518363370712</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8650938971975164</v>
+        <v>0.8818666592839909</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.017676720096887</v>
+        <v>1.022322678131498</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.016261616610633</v>
+        <v>1.025642653137535</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.022585700560452</v>
+        <v>1.022031971385721</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.032250872269718</v>
+        <v>1.023290141272153</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.017907595779883</v>
+        <v>1.022201419486587</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.016929414784993</v>
+        <v>1.024885804973827</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.02156200394686</v>
+        <v>1.021339989542702</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.030592356574807</v>
+        <v>1.021107217836153</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.027418286415085</v>
+        <v>1.022661056328937</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9172102222868732</v>
+        <v>0.8993894723456963</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9126216037027434</v>
+        <v>0.8775138717316785</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8858882382169075</v>
+        <v>0.9058522254139569</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.8917300609301707</v>
+        <v>0.8978892060660768</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9170366476261826</v>
+        <v>0.8973997683562233</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9151451763321482</v>
+        <v>0.8771818549456605</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8884988136904675</v>
+        <v>0.9092593040149852</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.89533418215983</v>
+        <v>0.9080214685578371</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8887995505238923</v>
+        <v>0.9018531384764391</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.015269763573766</v>
+        <v>1.035293258003006</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.012885763875399</v>
+        <v>1.045916813666642</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.017385303206614</v>
+        <v>1.030708178305166</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.01338512056623</v>
+        <v>1.01693291213664</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.016326957446058</v>
+        <v>1.036226875362066</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.012055246986977</v>
+        <v>1.046877057964118</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.015623481087158</v>
+        <v>1.029608218630797</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.014295439477674</v>
+        <v>1.016136957371952</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.015385211886422</v>
+        <v>1.023820545220903</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9312158055286351</v>
+        <v>0.9311318570383806</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9243814301956444</v>
+        <v>0.9178065126698757</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9012896738454813</v>
+        <v>0.9336692970701006</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.903665975308253</v>
+        <v>0.913093085100831</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9320090659484506</v>
+        <v>0.9299097579144106</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9261774774617734</v>
+        <v>0.9183015596050211</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9023802581021232</v>
+        <v>0.936180852280347</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9081333777731888</v>
+        <v>0.922674172288772</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9024762603255115</v>
+        <v>0.9232665633176783</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.017308253584284</v>
+        <v>1.025051707117001</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.019088359809754</v>
+        <v>1.034110662525151</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.032082917126595</v>
+        <v>1.014042419123472</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.057713098580622</v>
+        <v>1.018132810192389</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.017405053859145</v>
+        <v>1.024773595643476</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.018817775787241</v>
+        <v>1.032907530641123</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.031029058132266</v>
+        <v>1.014314083539909</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.050946401449936</v>
+        <v>1.016422308646798</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.044898007853608</v>
+        <v>1.016087614657931</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.947333524832418</v>
+        <v>0.9544582996082154</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9420263555366735</v>
+        <v>0.9491135008869438</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9302056757585214</v>
+        <v>0.9467802726622768</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9558193388251721</v>
+        <v>0.9296500287009476</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9482307339384948</v>
+        <v>0.9529469662419046</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9436060775718419</v>
+        <v>0.9485205963155144</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9303802675881834</v>
+        <v>0.9495814232083511</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9543995054073079</v>
+        <v>0.9378266123265268</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9428385807185991</v>
+        <v>0.9381369582600867</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.011753115652576</v>
+        <v>1.013449144578234</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.015230393901338</v>
+        <v>1.016902908250587</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.02607501503579</v>
+        <v>1.022761666457829</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.014756372565949</v>
+        <v>1.045541760679053</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.012111491011888</v>
+        <v>1.012968061487854</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.015065070198736</v>
+        <v>1.015832741563164</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.025417252732296</v>
+        <v>1.019061217774111</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.016247169365042</v>
+        <v>1.036922042666954</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.020415693800869</v>
+        <v>1.034151713568441</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9584676453113362</v>
+        <v>0.9672949472735416</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9563737879969393</v>
+        <v>0.965156279311829</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9544608027403019</v>
+        <v>0.9683305694374678</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9699237650946148</v>
+        <v>0.9719879278233207</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9597152219497871</v>
+        <v>0.9653048410947935</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.957821569370416</v>
+        <v>0.9635382777843159</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9540279779866132</v>
+        <v>0.9676816015103759</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9699057958135729</v>
+        <v>0.9724530865210517</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.962130159327403</v>
+        <v>0.9701558017039279</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.009944449461514</v>
+        <v>1.006145508368954</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.011728100876267</v>
+        <v>1.007281407777562</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.009467857223993</v>
+        <v>1.003034170187945</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.000193924639438</v>
+        <v>1.00014554657536</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.009556324691818</v>
+        <v>1.006216202919497</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.011121760570889</v>
+        <v>1.007201420680145</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.010252714128989</v>
+        <v>1.002877213930627</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000203264237073</v>
+        <v>1.000120237018917</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.004830890931716</v>
+        <v>1.001589858381652</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9679990783706311</v>
+        <v>0.973239466467258</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9675902362579847</v>
+        <v>0.9721839757505729</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9634975013465451</v>
+        <v>0.9712686491833309</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9701118572110431</v>
+        <v>0.9721293973375064</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9688865722224196</v>
+        <v>0.9713053718662118</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9684742315345871</v>
+        <v>0.9704771222640634</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9638093541159676</v>
+        <v>0.9704658284946527</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9701029429751917</v>
+        <v>0.9725700113812112</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.966793366315473</v>
+        <v>0.9716988326439399</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.006088609183664</v>
+        <v>1.009648243133395</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.006513718260911</v>
+        <v>1.010744408441944</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.005454394290878</v>
+        <v>1.014803992214533</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.00918726174317</v>
+        <v>1.009566675547228</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.006330983286364</v>
+        <v>1.0106571225626</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.00675944198596</v>
+        <v>1.011519663616343</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.006539530502452</v>
+        <v>1.016212371919003</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.011264150996394</v>
+        <v>1.009696829634646</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.007320828017024</v>
+        <v>1.01218533388088</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9738928464489772</v>
+        <v>0.9826295174667498</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9738928464489772</v>
+        <v>0.9826295174667498</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9687527966171651</v>
+        <v>0.9856473027040611</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9790245287633937</v>
+        <v>0.9814294438717562</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9750205769175422</v>
+        <v>0.9816566922599015</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9750205769175422</v>
+        <v>0.9816566922599015</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.970112214785757</v>
+        <v>0.9861993814408909</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9810303290069106</v>
+        <v>0.9820008570893407</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.973861578361925</v>
+        <v>0.9835338512647694</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.010572504787307</v>
+        <v>1.016834932914086</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.010572504787307</v>
+        <v>1.016834932914086</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.016227059182484</v>
+        <v>1.008007097216542</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.019838460191676</v>
+        <v>1.000237059259186</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.009451522203022</v>
+        <v>1.016673870528838</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.009451522203022</v>
+        <v>1.016673870528838</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.014628752486504</v>
+        <v>1.00846022692276</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.017654578271405</v>
+        <v>1.000250127440652</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.01803275968708</v>
+        <v>1.004122078237864</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9841893332303833</v>
+        <v>0.9991720194727033</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9841893332303833</v>
+        <v>0.9991720194727033</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9844728055810683</v>
+        <v>0.9935394764780355</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.998446867903941</v>
+        <v>0.9816621008086638</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9842360055486814</v>
+        <v>0.9980247088504102</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9842360055486814</v>
+        <v>0.9980247088504102</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9843037462599921</v>
+        <v>0.994542851998966</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9983500057369858</v>
+        <v>0.9822464824504428</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9914105976279771</v>
+        <v>0.9875650778444079</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.003390775878113</v>
+        <v>1.000323414420555</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.003390775878113</v>
+        <v>1.000323414420555</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.001609633769513</v>
+        <v>1.000125029926314</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000666099553571</v>
+        <v>1.00011602983283</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.002999663741513</v>
+        <v>1.000282029500258</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.002999663741513</v>
+        <v>1.000282029500258</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.001590224745407</v>
+        <v>1.000128720004529</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000699337484922</v>
+        <v>1.000118894923338</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.001137866661542</v>
+        <v>1.000120529879572</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9875264986809966</v>
+        <v>0.9994951661124156</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9875264986809966</v>
+        <v>0.9994951661124156</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9860574462540987</v>
+        <v>0.9936636986455695</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9991119329169166</v>
+        <v>0.9817760028981166</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9871883826076169</v>
+        <v>0.9983061812602921</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9871883826076169</v>
+        <v>0.9983061812602921</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9858690104342916</v>
+        <v>0.9946708695593793</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9990481893190695</v>
+        <v>0.9823632665706727</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9925417663911904</v>
+        <v>0.9876840822009081</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000711718286629</v>
+        <v>0.9962780364757121</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000711718286629</v>
+        <v>0.9962780364757121</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.001284857139207</v>
+        <v>1.005599233022999</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>0.9996739317965277</v>
+        <v>1.011938453564996</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000647262701808</v>
+        <v>0.9985814163574638</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000647262701808</v>
+        <v>0.9985814163574638</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.00107877116968</v>
+        <v>1.005679556724835</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>0.9996418949795906</v>
+        <v>1.01135911344967</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000479394467867</v>
+        <v>1.008768843293998</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9882293393486385</v>
+        <v>0.995775081561443</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9882293393486385</v>
+        <v>0.995775081561443</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9873243892035863</v>
+        <v>0.9992274532407809</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9934968901199436</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9878273528273371</v>
+        <v>0.9968900004413135</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9878273528273371</v>
+        <v>0.9968900004413135</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.986932537499829</v>
+        <v>1.000320159185583</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9935220423644371</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9930221990481621</v>
+        <v>0.996353931866915</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000907709497814</v>
+        <v>0.9948556949004049</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000907709497814</v>
+        <v>0.9948556949004049</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.001438876316945</v>
+        <v>0.9916690137892514</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.000322878990848</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.001154990994722</v>
+        <v>0.9944331310810504</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.001154990994722</v>
+        <v>0.9944331310810504</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.001732486492082</v>
+        <v>0.9912990021054343</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.000305091413684</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000719438158473</v>
+        <v>0.9959959463900497</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9891263645059838</v>
+        <v>0.9906525107313167</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9891263645059838</v>
+        <v>0.9906525107313167</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9887450268843537</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9889682845241925</v>
+        <v>0.991340444482245</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9889682845241925</v>
+        <v>0.991340444482245</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9886423847896442</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9938251574088681</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.993740226393506</v>
+        <v>0.992358145932797</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000381741913568</v>
+        <v>1.000252754999762</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000381741913568</v>
+        <v>1.000252754999762</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000512486069681</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000307966228627</v>
+        <v>1.000278341417329</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000307966228627</v>
+        <v>1.000278341417329</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000410621638169</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000256243034841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9895039554971304</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9895039554971304</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9892517449370982</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.989272853357009</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.989272853357009</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.98904834274525</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9938251574088681</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9939960866254268</v>
+        <v>0.992358145932797</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.001532768329012</v>
+        <v>1</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.001532768329012</v>
+        <v>1</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.001788109946233</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.001363837122715</v>
+        <v>1</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.001363837122715</v>
+        <v>1</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.001591143309834</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.000894054973116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9910206358215485</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9910206358215485</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9910206358215485</v>
+        <v>0.9909029031064305</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9906220603989115</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9906220603989115</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9906220603989115</v>
+        <v>0.9916163755866175</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9938251574088681</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9948882420043673</v>
+        <v>0.992358145932797</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.001348277395347</v>
+        <v>1.003084237255449</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.001348277395347</v>
+        <v>1.003084237255449</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.001348277395347</v>
+        <v>1.003084237255449</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.001079192477175</v>
+        <v>1.002330911776799</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.001079192477175</v>
+        <v>1.002330911776799</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.001079192477175</v>
+        <v>1.002330911776799</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.000674138697674</v>
+        <v>1.001542118627724</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9923568065431495</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9923568065431495</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9923568065431495</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9916911322742177</v>
+        <v>0.9939277458745389</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9916911322742177</v>
+        <v>0.9939277458745389</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9916911322742177</v>
+        <v>0.9939277458745389</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9938251574088681</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9955611003169624</v>
+        <v>0.9938883710448027</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.001373141580169</v>
+        <v>1</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.001373141580169</v>
+        <v>1</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.001373141580169</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.001371626960833</v>
+        <v>1</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.001371626960833</v>
+        <v>1</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.001371626960833</v>
+        <v>1</v>
       </c>
       <c r="U20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.000686570790084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9937194529365778</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9937194529365778</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9937194529365778</v>
+        <v>0.9939590827567236</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9938176693932362</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9930513625680643</v>
+        <v>0.9939277458745389</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9930513625680643</v>
+        <v>0.9939277458745389</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9930513625680643</v>
+        <v>0.9939277458745389</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9938251574088681</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9962463616051364</v>
+        <v>0.9938883710448027</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.00509872412413</v>
+        <v>1.000525816989196</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.00509872412413</v>
+        <v>1.000525816989196</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.00509872412413</v>
+        <v>1.000525816989196</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1</v>
+        <v>1.000668184875574</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.005678520559295</v>
+        <v>1.000557361897546</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.005678520559295</v>
+        <v>1.000557361897546</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.005678520559295</v>
+        <v>1.000557361897546</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1</v>
+        <v>1.000660645300876</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.002549362062065</v>
+        <v>1.000597000932385</v>
       </c>
     </row>
     <row r="22">
@@ -7983,62 +7983,62 @@
         <v/>
       </c>
       <c r="B22" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="C22" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="D22" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="F22" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="H22" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="I22" s="34" t="n">
-        <v>0.9986904251468433</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="J22" s="34" t="n">
-        <v>0.9987861542838827</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="M22">
         <f>+M21+1</f>
         <v/>
       </c>
       <c r="N22" s="22" t="n">
-        <v>1.00121532092822</v>
+        <v>1</v>
       </c>
       <c r="O22" s="22" t="n">
-        <v>1.00121532092822</v>
+        <v>1</v>
       </c>
       <c r="P22" s="22" t="n">
-        <v>1.00121532092822</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="22" t="n">
-        <v>1.00121532092822</v>
+        <v>1</v>
       </c>
       <c r="R22" s="22" t="n">
-        <v>1.001311292088301</v>
+        <v>1</v>
       </c>
       <c r="S22" s="22" t="n">
-        <v>1.001311292088301</v>
+        <v>1</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1.001311292088301</v>
+        <v>1</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1.001311292088301</v>
+        <v>1</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1.00121532092822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8047,31 +8047,31 @@
         <v/>
       </c>
       <c r="B23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="C23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="D23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="E23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="F23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="G23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="H23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="I23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="J23" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="M23">
         <f>+M22+1</f>
@@ -8111,62 +8111,62 @@
         <v/>
       </c>
       <c r="B24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="C24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="D24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="E24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="F24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="G24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="H24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="I24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="J24" s="34" t="n">
-        <v>1</v>
+        <v>0.9944817233290031</v>
       </c>
       <c r="M24">
         <f>+M23+1</f>
         <v/>
       </c>
       <c r="N24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1</v>
+        <v>1.005548897019972</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>64040.43999999999</v>
+        <v>72982.93000000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>81446.61583333333</v>
+        <v>67859.82666666668</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>6043.24</v>
+        <v>6181.89</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>50351.06</v>
+        <v>38188.02</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>58505.75999999999</v>
+        <v>51098.38</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>59630.77999999999</v>
+        <v>56627.35000000001</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>60072.37999999999</v>
+        <v>67882.58</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>60234.66999999999</v>
+        <v>67985.73</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>62013.28999999999</v>
+        <v>68222.81</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>61929.92999999999</v>
+        <v>71465.98</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>62143.62999999999</v>
+        <v>71465.98</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>62183.34999999999</v>
+        <v>71507.28</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>62203.70999999999</v>
+        <v>71519.44</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>62277.69999999999</v>
+        <v>71541.37</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>62369.15999999999</v>
+        <v>75281.40999999999</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>75281.40999999999</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>71561.40999999999</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>71561.40999999999</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>71561.40999999999</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>71561.40999999999</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>72562.23</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>62372.75999999999</v>
+        <v>72562.23</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>63789.49999999999</v>
+        <v>72580.19</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>64040.43999999999</v>
+        <v>72580.19</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>64040.43999999999</v>
+        <v>72580.19</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>64040.43999999999</v>
+        <v>72982.93000000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>65008.46000000001</v>
+        <v>47916.71</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>79921.56416666666</v>
+        <v>67042.47666666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>4415.2</v>
+        <v>3569.63</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>44123.56</v>
+        <v>26037.05</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>55303.77</v>
+        <v>31385.44</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>59300.57</v>
+        <v>40763.62</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>62555.25</v>
+        <v>42519.62</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>64270.61</v>
+        <v>44423.2</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>64337.73</v>
+        <v>45850.41</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>64342.10000000001</v>
+        <v>46002.48</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>64342.10000000001</v>
+        <v>46040.23</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>64342.10000000001</v>
+        <v>46095.41</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>64342.10000000001</v>
+        <v>46115.68</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>64396.75000000001</v>
+        <v>47715.68</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>64396.75000000001</v>
+        <v>47715.68</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>64396.75000000001</v>
+        <v>47715.68</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>64396.75000000001</v>
+        <v>47715.68</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>64396.75000000001</v>
+        <v>47715.68</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>64396.75000000001</v>
+        <v>47821.93</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>64565.66000000001</v>
+        <v>47821.93</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>64565.66000000001</v>
+        <v>47821.93</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>65008.46000000001</v>
+        <v>47821.93</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>65008.46000000001</v>
+        <v>47916.71</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>65008.46000000001</v>
+        <v>47916.71</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>65008.46000000001</v>
+        <v>47916.71</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>77682.48</v>
+        <v>49986.93</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>78508.50166666666</v>
+        <v>64103.79416666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>5360.11</v>
+        <v>4664.32</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>45885.91</v>
+        <v>26522.84</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>53973.89000000001</v>
+        <v>32023.87</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>58705.25000000001</v>
+        <v>37780.83</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>66892.04000000001</v>
+        <v>38137.97</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>68573.48000000001</v>
+        <v>49326.83</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>70150.38</v>
+        <v>49491.04</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>71957.36</v>
+        <v>49491.04</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>72040.42</v>
+        <v>49491.04</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>72058.59999999999</v>
+        <v>49627.22</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>75351.99999999999</v>
+        <v>49627.22</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>75462.18999999999</v>
+        <v>49881.97</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>75405.13999999998</v>
+        <v>49881.97</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>76993.01999999999</v>
+        <v>49881.97</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>76993.01999999999</v>
+        <v>49881.97</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>76993.01999999999</v>
+        <v>49986.93</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>77182.70999999999</v>
+        <v>49986.93</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>77182.70999999999</v>
+        <v>49986.93</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>77682.48</v>
+        <v>49986.93</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>77682.48</v>
+        <v>49986.93</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>77682.48</v>
+        <v>49986.93</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>77682.48</v>
+        <v>49986.93</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>72797.97</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>77065.66666666667</v>
+        <v>63456.97416666666</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>9971.360000000001</v>
+        <v>3046.37</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>42806.56</v>
+        <v>24925.48</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>52808.2</v>
+        <v>34581.72</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>56817.02</v>
+        <v>35807.54</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>59668.89</v>
+        <v>40381.52</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>63196.89</v>
+        <v>40400.27</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>65012.81</v>
+        <v>40486.66</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>65036.87</v>
+        <v>40536.81</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>68162.70999999999</v>
+        <v>40563.83</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>68230.65999999999</v>
+        <v>42380.74000000001</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>68255.09999999999</v>
+        <v>43980.74000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>70570.34999999999</v>
+        <v>43980.74000000001</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>72275.34</v>
+        <v>43980.74000000001</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>72297.39</v>
+        <v>43980.74000000001</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>72297.39</v>
+        <v>44031.38</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>72297.39</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>72297.39</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>72797.97</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>72797.97</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>72797.97</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>72797.97</v>
+        <v>44038.11000000001</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>74564.36333333333</v>
+        <v>62015.92416666666</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2598.43</v>
+        <v>5462.39</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>29691.45</v>
+        <v>37828.79</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>36384.12</v>
+        <v>44676.02</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>38536.87</v>
+        <v>47921.98</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>39731.74000000001</v>
+        <v>48033.46000000001</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>40269.78000000001</v>
+        <v>51785.15000000001</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>40316.31</v>
+        <v>54651.65000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>44672.2</v>
+        <v>54719.36000000001</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>44777.60000000001</v>
+        <v>63046.15000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>44777.60000000001</v>
+        <v>63060.82000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>44777.60000000001</v>
+        <v>64660.82000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>44927.15000000001</v>
+        <v>64660.82000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>44961.88000000001</v>
+        <v>64660.82000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>45053.34000000001</v>
+        <v>64811.48000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>48700.54</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>72939.21416666666</v>
+        <v>61355.87083333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1725.59</v>
+        <v>3098.94</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>34750.7</v>
+        <v>24655.88</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>40611.37</v>
+        <v>35055.64</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>42829.73</v>
+        <v>36932.36</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>44454.99</v>
+        <v>40699.65</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>46065.46</v>
+        <v>42567.72</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>47711.18</v>
+        <v>42761.83</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>47818.39</v>
+        <v>44489.78</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>48116.76</v>
+        <v>44552.19</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>48116.76</v>
+        <v>44552.19</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>48116.76</v>
+        <v>44552.19</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>48199.51</v>
+        <v>44552.19</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>48199.51</v>
+        <v>48875.85000000001</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>48199.51</v>
+        <v>48879.28000000001</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>48199.51</v>
+        <v>48879.28000000001</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>48700.54</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>48700.54</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>48700.54</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>48700.54</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>66781.37000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>71634.5975</v>
+        <v>60729.9575</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>4169.37</v>
+        <v>2603.49</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>38434.89</v>
+        <v>25823.28</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>47194.28</v>
+        <v>30532.75</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>52969.86</v>
+        <v>35305.87</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>54844.53</v>
+        <v>35362.23</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>61504.43</v>
+        <v>45537.92000000001</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>61504.43</v>
+        <v>46988.91</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>62324.15</v>
+        <v>47091.93</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>62464.22</v>
+        <v>47091.93</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>62464.22</v>
+        <v>47091.93</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>64080.93</v>
+        <v>47091.93</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>64118.37</v>
+        <v>47145.29</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>66281.15000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>66281.15000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>66781.37000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>66781.37000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>66781.37000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>66781.37000000001</v>
+        <v>49358.37</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>60311.23</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>71634.5975</v>
+        <v>60206.21833333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>3895.55</v>
+        <v>5518.87</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>40922.08</v>
+        <v>25372.63</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>46231.52</v>
+        <v>30359.72</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>48903.75000000001</v>
+        <v>35718.6</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>54735.68000000001</v>
+        <v>39458.75</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>54783.36000000001</v>
+        <v>39980.06</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>54904.32000000001</v>
+        <v>42144.69</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>56729.57000000001</v>
+        <v>42095.23</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>58307.00000000001</v>
+        <v>42095.23</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>59863.00000000001</v>
+        <v>43303.10999999999</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>59863.00000000001</v>
+        <v>43564.16</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>59865.63</v>
+        <v>46375.69</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>59865.63</v>
+        <v>46518.02999999999</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>60311.23</v>
+        <v>46534.09999999999</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>60311.23</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>60311.23</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>60311.23</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>55566.38</v>
+        <v>52360.07</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>70496.6825</v>
+        <v>59439.09166666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>6188.56</v>
+        <v>4004.98</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>37182.44</v>
+        <v>30333.79</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>42317.13</v>
+        <v>36608.93</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>43389.59</v>
+        <v>37528.42</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>43856.94</v>
+        <v>42551.47</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>50614.84</v>
+        <v>42551.47</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>53755.32000000001</v>
+        <v>42551.47</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>53828.06</v>
+        <v>44199.61</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>53828.06</v>
+        <v>50457.76</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>53860.04000000001</v>
+        <v>50554.01</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>55432.61000000001</v>
+        <v>50565.65</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>55449.92000000001</v>
+        <v>50660.98</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>55509.68000000001</v>
+        <v>50660.98</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>55626.14000000001</v>
+        <v>50679.05</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>55566.38</v>
+        <v>52312.19</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>55566.38</v>
+        <v>52360.07</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>67337.17000000001</v>
+        <v>46802.99</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>70246.59666666666</v>
+        <v>58651.46416666666</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>6351.91</v>
+        <v>2353.54</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>27140.44</v>
+        <v>16817.11</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>40074.83</v>
+        <v>26725.78</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>47790.19</v>
+        <v>34894.22</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>60115.07000000001</v>
+        <v>36623.69</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>60295.40000000001</v>
+        <v>38198.96</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>60649.39000000001</v>
+        <v>38198.96</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>60649.39000000001</v>
+        <v>46057.42</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>60709.21000000001</v>
+        <v>46694.95</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>66952.60000000001</v>
+        <v>46706.59</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>66952.60000000001</v>
+        <v>46712.07999999999</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>67293.29000000001</v>
+        <v>46794.32999999999</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>67337.17000000001</v>
+        <v>46802.99</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>67337.17000000001</v>
+        <v>46802.99</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>67337.17000000001</v>
+        <v>46802.99</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>51991.88</v>
+        <v>58271.84</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>69400.99666666666</v>
+        <v>57459.95916666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>361.68</v>
+        <v>2523.67</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>25944.47</v>
+        <v>19426.47</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>29491.94</v>
+        <v>37346.05</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>41633.58</v>
+        <v>43830.37</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>43325.05</v>
+        <v>43854.60000000001</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>48802.88</v>
+        <v>45482.31</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>48811.09</v>
+        <v>48089.15000000001</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>48847.69</v>
+        <v>52849.52000000001</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>50435.95</v>
+        <v>55651.15000000001</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>50453.26</v>
+        <v>55744.62000000001</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>52053.09</v>
+        <v>56667.46000000001</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>51990.13</v>
+        <v>58271.84</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>51991.88</v>
+        <v>58271.84</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>51991.88</v>
+        <v>58271.84</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>75281.40999999999</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>67859.82666666668</v>
+        <v>56540.92916666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>6181.89</v>
+        <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>38188.02</v>
+        <v>27432.11</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>51098.38</v>
+        <v>39534.83</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>56627.35000000001</v>
+        <v>42204.21</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>67882.58</v>
+        <v>43690.66</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>67985.73</v>
+        <v>43850.74999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>68222.81</v>
+        <v>45046.48</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>71465.98</v>
+        <v>49340.78</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>71465.98</v>
+        <v>49398.11</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>71507.28</v>
+        <v>49480.72</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>71519.44</v>
+        <v>49480.72</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>71541.37</v>
+        <v>49494.34</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>75281.40999999999</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>47715.68</v>
+        <v>66509.49000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>67042.47666666667</v>
+        <v>55091.66583333333</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>3569.63</v>
+        <v>9447.17</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>26037.05</v>
+        <v>36467.02</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>31385.44</v>
+        <v>41595.71999999999</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>40763.62</v>
+        <v>41975.63</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>42519.62</v>
+        <v>43607.63</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>44423.2</v>
+        <v>58981.16</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>45850.41</v>
+        <v>59445.92</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>46002.48</v>
+        <v>61196.87</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>46040.23</v>
+        <v>60122.50999999999</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>46095.41</v>
+        <v>66452.08</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>46115.68</v>
+        <v>66476.05</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>47715.68</v>
+        <v>66509.49000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>49627.22</v>
+        <v>48756.75</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>64103.79416666667</v>
+        <v>54461.23416666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>4664.32</v>
+        <v>906.87</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>26522.84</v>
+        <v>1160.65</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>32023.87</v>
+        <v>1324.13</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>37780.83</v>
+        <v>3932.68</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>38137.97</v>
+        <v>35188.16</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>49326.83</v>
+        <v>44644.14</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>49491.04</v>
+        <v>46774.3</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>49491.04</v>
+        <v>46982.61</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>49491.04</v>
+        <v>48720.01</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>49627.22</v>
+        <v>48756.75</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>49627.22</v>
+        <v>48756.75</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>42380.74000000001</v>
+        <v>34701.92000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>63456.97416666666</v>
+        <v>52255.39000000001</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>3046.37</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>24925.48</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>34581.72</v>
+        <v>160.96</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>35807.54</v>
+        <v>29519.89</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>40381.52</v>
+        <v>32283.76</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>40400.27</v>
+        <v>34060.82</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>40486.66</v>
+        <v>34371.6</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>40536.81</v>
+        <v>34507.9</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>40563.83</v>
+        <v>34538.41</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>42380.74000000001</v>
+        <v>34701.92000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>63046.15000000001</v>
+        <v>43622.93</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>62015.92416666666</v>
+        <v>50900.79749999999</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>5462.39</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>37828.79</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>44676.02</v>
+        <v>29135.55</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>47921.98</v>
+        <v>36928.12</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>48033.46000000001</v>
+        <v>38827.50999999999</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>51785.15000000001</v>
+        <v>41032.24</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>54651.65000000001</v>
+        <v>41474.15</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>54719.36000000001</v>
+        <v>43131.1</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>63046.15000000001</v>
+        <v>43622.93</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>44489.78</v>
+        <v>41100.67999999999</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>61355.87083333333</v>
+        <v>49854.32166666666</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>3098.94</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>24655.88</v>
+        <v>25323.17</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>35055.64</v>
+        <v>34064.59</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>36932.36</v>
+        <v>35156.96</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>40699.65</v>
+        <v>35556.07</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>42567.72</v>
+        <v>39154.2</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>42761.83</v>
+        <v>40916.8</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>44489.78</v>
+        <v>41100.67999999999</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>46988.91</v>
+        <v>21548.16</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>60729.9575</v>
+        <v>49175.245</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>2603.49</v>
+        <v>994.2</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>25823.28</v>
+        <v>17600.83</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>30532.75</v>
+        <v>20128.25</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>35305.87</v>
+        <v>20588.95</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>35362.23</v>
+        <v>20921.1</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>45537.92000000001</v>
+        <v>21387.01</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>46988.91</v>
+        <v>21548.16</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>39980.06</v>
+        <v>26995.36</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>60206.21833333333</v>
+        <v>48059.1575</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>5518.87</v>
+        <v>2283.04</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>25372.63</v>
+        <v>15208.56</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>30359.72</v>
+        <v>21936.22</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>35718.6</v>
+        <v>23267.22</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>39458.75</v>
+        <v>23451.05</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>39980.06</v>
+        <v>26995.36</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>42551.47</v>
+        <v>33987.68</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>59439.09166666667</v>
+        <v>46286.77583333334</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>4004.98</v>
+        <v>6019.08</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>30333.79</v>
+        <v>23798.31</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>36608.93</v>
+        <v>32567.58</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>37528.42</v>
+        <v>33543.89</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>42551.47</v>
+        <v>33987.68</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>34894.22</v>
+        <v>24130.52</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>58651.46416666666</v>
+        <v>45773.54583333334</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>2353.54</v>
+        <v>3595.3</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>16817.11</v>
+        <v>20451.36</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>26725.78</v>
+        <v>22689.15</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>34894.22</v>
+        <v>24130.52</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>37346.05</v>
+        <v>29890.93</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>57459.95916666667</v>
+        <v>44920.35</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>110</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>2523.67</v>
+        <v>4835.889999999999</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>19426.47</v>
+        <v>23820.54</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>37346.05</v>
+        <v>29890.93</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>27432.11</v>
+        <v>11123.92</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>56540.92916666667</v>
+        <v>43901.69</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>85</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>1157.68</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>27432.11</v>
+        <v>11123.92</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>9447.17</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>55091.66583333333</v>
+        <v>43909.92000000001</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>85</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>9447.17</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_PEN.xlsx
+++ b/Process Results/Unified_IBNP_PEN.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1044390444430706</v>
+        <v>0.06267597275832607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09398384124700813</v>
+        <v>0.07217091472857817</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.08481778863059361</v>
+        <v>0.06745791023953242</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.09893599257756948</v>
+        <v>0.06708916119270651</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6033543584322595</v>
+        <v>0.656088667756058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5573955593132026</v>
+        <v>0.5991435994021546</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4340533812266668</v>
+        <v>0.4637184238099037</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5794651112026281</v>
+        <v>0.6263244440270315</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7547238618965354</v>
+        <v>0.79291904233253</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7123055028712824</v>
+        <v>0.741580489488912</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5790649059883111</v>
+        <v>0.5827237647073271</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7329014304526226</v>
+        <v>0.7663909689696269</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7913751136833153</v>
+        <v>0.8226679930881509</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7704108999004717</v>
+        <v>0.7912138312259448</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6973699210681666</v>
+        <v>0.6818782941470412</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7807523030540862</v>
+        <v>0.8066343951978912</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8011882597307453</v>
+        <v>0.8292238887457999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7963292905553411</v>
+        <v>0.8169943776155197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7831796028547983</v>
+        <v>0.7700042616052427</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7987513856838653</v>
+        <v>0.8230637075692626</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8774531971448704</v>
+        <v>0.8674024839120767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8863247440153539</v>
+        <v>0.8731595818930044</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8555746673047215</v>
+        <v>0.861512899830786</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8818666592839909</v>
+        <v>0.8702715117892711</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8978892060660768</v>
+        <v>0.9256335839995125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9058522254139569</v>
+        <v>0.9224982038012595</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8775138717316785</v>
+        <v>0.893470858250477</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9018531384764391</v>
+        <v>0.9240632342932484</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.913093085100831</v>
+        <v>0.9409209240170286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9336692970701006</v>
+        <v>0.9469227948555239</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9178065126698757</v>
+        <v>0.9275258839383422</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9232665633176783</v>
+        <v>0.9439123188018471</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9296500287009476</v>
+        <v>0.941684905226146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9467802726622768</v>
+        <v>0.9495115457495992</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9491135008869438</v>
+        <v>0.9363443631154152</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9381369582600867</v>
+        <v>0.945582030369208</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9719879278233207</v>
+        <v>0.9584423438645687</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9683305694374678</v>
+        <v>0.957897675051585</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.965156279311829</v>
+        <v>0.9515990317792318</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9701558017039279</v>
+        <v>0.9581699320542463</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9721293973375064</v>
+        <v>0.9749040420808418</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9712686491833309</v>
+        <v>0.9726542504525477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9721839757505729</v>
+        <v>0.9598909185842465</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9716988326439399</v>
+        <v>0.9737778468030562</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9814294438717562</v>
+        <v>0.9749051629592997</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9856473027040611</v>
+        <v>0.9728108179374912</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9826295174667498</v>
+        <v>0.9679753398491405</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9835338512647694</v>
+        <v>0.9738568644420594</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9816621008086638</v>
+        <v>0.9758506806981245</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9935394764780355</v>
+        <v>0.9737864904346858</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9991720194727033</v>
+        <v>0.9795947577091052</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9875650778444079</v>
+        <v>0.9748174928293803</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9817760028981166</v>
+        <v>0.9758506806981245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9936636986455695</v>
+        <v>0.9739141110309447</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9994951661124156</v>
+        <v>0.9797336075711148</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9876840822009081</v>
+        <v>0.974881434132614</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9934968901199436</v>
+        <v>0.9760766558165134</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9992274532407809</v>
+        <v>0.9740257318901839</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.995775081561443</v>
+        <v>0.9831608640697083</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.996353931866915</v>
+        <v>0.9750501153743472</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.987832703347218</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9856878154658224</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9906525107313167</v>
+        <v>0.9857964453795515</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.992358145932797</v>
+        <v>0.9867590938386985</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.987832703347218</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9856878154658224</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9857964453795515</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.992358145932797</v>
+        <v>0.9867590938386985</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.9894421140477356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9865167217408795</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9865167217408795</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.992358145932797</v>
+        <v>0.9879772523835708</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.9894421140477356</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9917887339195222</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9917887339195222</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9938883710448027</v>
+        <v>0.9906140342856975</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.9894421140477356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9919131177720962</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9919131177720962</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9938883710448027</v>
+        <v>0.9906760750808642</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4487,20 +4487,20 @@
         <v/>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
         <f>+I27/I28</f>
         <v/>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
         <f>I27</f>
@@ -4525,20 +4525,20 @@
         <v/>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
         <f>+I28/I29</f>
         <v/>
       </c>
       <c r="I28" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5">
         <f>I28</f>
@@ -4563,20 +4563,20 @@
         <v/>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
         <f>+I29/I30</f>
         <v/>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="J29" s="5">
         <f>I29</f>
@@ -4833,49 +4833,49 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>6.177402056652578</v>
+        <v>7.956230194840815</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.338073563384538</v>
+        <v>1.421796342292386</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.108202451819412</v>
+        <v>1.053535465334537</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.198759609976451</v>
+        <v>1.102005125044812</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.001519535645227</v>
+        <v>1.045898920506687</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.003487202387913</v>
+        <v>1.004560028115201</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.047537912906255</v>
+        <v>1.040408700937261</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>1.001402794079899</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.000577897343603</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000170052615622</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.000306629917684</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.05227800362224</v>
+        <v>1.097047081187255</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.000070177807649</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0.9505854101298049</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>0.9467258928527589</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4884,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1.013985470660793</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>1.000659315297498</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1.000247511687554</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4908,40 +4908,40 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>7.294047282211322</v>
+        <v>9.918716799373149</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.205414591898852</v>
+        <v>1.182373037042545</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.298806707823755</v>
+        <v>1.156327877443073</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.043077626569966</v>
+        <v>1.001430357048275</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.044769449962159</v>
+        <v>1.287803583908642</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.032127581984188</v>
+        <v>1.03186743582434</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.003316655183672</v>
+        <v>1.002192705667257</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.000820607932442</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.001198517036079</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.000439740095597</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.034695357414224</v>
+        <v>1.001133243865967</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>1.046947534155589</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -4953,19 +4953,19 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.002226731338629</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>1.032675541730299</v>
       </c>
       <c r="T39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1.001981935902629</v>
+        <v>1.031394013907156</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
@@ -4983,49 +4983,49 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>5.686325123490669</v>
+        <v>4.597432083016995</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.207407276143882</v>
+        <v>1.196553924445357</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.179770902142683</v>
+        <v>1.176512826864016</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.009452942140234</v>
+        <v>1.104711550844658</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.293378488682014</v>
+        <v>1.013211518357779</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.003329019926884</v>
+        <v>1.054142740155968</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>0.9988264239219699</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.002751609180167</v>
+        <v>1.028693987418527</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.006028435371039</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.005133271619889</v>
+        <v>1.064537684188103</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>1.00306928047863</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>1.000345457449509</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>1.001852190114346</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.002104167096849</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
@@ -5058,49 +5058,49 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>8.182026477414103</v>
+        <v>7.574017847779515</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.387404374960884</v>
+        <v>1.206869632841791</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.035447051216654</v>
+        <v>1.025116549432065</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.12773790101191</v>
+        <v>1.133846562152097</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.000464321303408</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.002138352045667</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.001238679604591</v>
+        <v>1.038732856937727</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.000666554669694</v>
+        <v>1.141588353381399</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.044791381878881</v>
+        <v>1.001907536125266</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.037752998177946</v>
+        <v>1.000230248797276</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>1.001885271918783</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.000356684770014</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.001151413095823</v>
+        <v>1.032225150234663</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.000152845538795</v>
+        <v>1.000915274241052</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -5133,43 +5133,43 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.925318404581144</v>
+        <v>7.16281408319876</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.181005789505823</v>
+        <v>1.589434091114591</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.072655531983377</v>
+        <v>1.30571481502967</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.002326281176195</v>
+        <v>1.049572641733063</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.07810576210833</v>
+        <v>1.043020111390701</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.055353706612803</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.001238937891171</v>
+        <v>1.205760161791648</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.152172649680113</v>
+        <v>1.013844062175698</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000232686690623</v>
+        <v>1.000249312890247</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.025372331028997</v>
+        <v>1.000117558987202</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>1.001761036452919</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.000185091380854</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.002330004475662</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1</v>
+        <v>1.005509189176252</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>1</v>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>7.956230194840815</v>
+        <v>7.697706118470323</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.421796342292386</v>
+        <v>1.922431095304499</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.053535465334537</v>
+        <v>1.173628000819364</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.102005125044812</v>
+        <v>1.000552813038083</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.045898920506687</v>
+        <v>1.037116060800919</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.004560028115201</v>
+        <v>1.05731547056427</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.040408700937261</v>
+        <v>1.098990520730768</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.001402794079899</v>
+        <v>1.0530114559224</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.001679569963963</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.016554781430028</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>1.028312191864608</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.097047081187255</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.000070177807649</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.9467258928527589</v>
+        <v>1.031314267749225</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,40 +5283,40 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>9.918716799373149</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.182373037042545</v>
+        <v>1.441188082141694</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.156327877443073</v>
+        <v>1.067519703512068</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.001596335113679</v>
+        <v>1.035220419953365</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.287755890960496</v>
+        <v>1.003664169870631</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.031863334996416</v>
+        <v>1.027268176713055</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.002192432214325</v>
+        <v>1.09533042315404</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>1.001161919207601</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>1.00167233118838</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.001133102847983</v>
+        <v>1.000275258727036</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.046941698735971</v>
+        <v>1.000565317165559</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.036846819777425</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4.597432083016995</v>
+        <v>3.860099902933894</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.196553924445357</v>
+        <v>1.140639405139219</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.176512826864016</v>
+        <v>1.00913339160856</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.104711550844658</v>
+        <v>1.038879702341573</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.013211518357779</v>
+        <v>1.352542204196834</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.054142740155968</v>
+        <v>1.007879804330739</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>0.9988264239219699</v>
+        <v>1.029454502512536</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>0.9824442001690609</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.028693987418527</v>
+        <v>1.105277873462036</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.006028435371039</v>
+        <v>1.00036071105675</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.064537684188103</v>
+        <v>1.000503038312295</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.00306928047863</v>
+        <v>1.002091581216455</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000345457449509</v>
+        <v>1.000596111546229</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.001852190114346</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.002372079192866</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>7.574017847779515</v>
+        <v>1.279841653158667</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.206869632841791</v>
+        <v>1.140852108732176</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.025116549432065</v>
+        <v>2.938593642618172</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.133846562152097</v>
+        <v>8.958137586479845</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>1.271280549608212</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.048070975413204</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.038732856937727</v>
+        <v>1.004485285932403</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.141588353381399</v>
+        <v>1.037242279311522</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.001907536125266</v>
+        <v>1.000759268490068</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.000230248797276</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.001885271918783</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000039029088442</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.000356684770014</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.032225150234663</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.000915274241052</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>7.145453232152417</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.589201711828013</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.305638974802606</v>
+        <v>183.3989189860835</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.049563222791626</v>
+        <v>1.093627381402844</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.043012323444197</v>
+        <v>1.055045013344171</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.009124266532632</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.205724449042592</v>
+        <v>1.003965483131422</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.01384206931261</v>
+        <v>1.000884145369611</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000249277491463</v>
+        <v>1.004734149603297</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.000117542299705</v>
+        <v>1.04791925057749</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.001760786503191</v>
+        <v>1.000246942029946</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.000185065156398</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.000964430706836</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,40 +5583,40 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>7.697706118470323</v>
+        <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.922431095304499</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.173628000819364</v>
+        <v>1.267484324375163</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.000552813038083</v>
+        <v>1.051438604017074</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.037116060800919</v>
+        <v>1.05678668540728</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.05731547056427</v>
+        <v>1.010770543145785</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.098990520730768</v>
+        <v>1.039954030981826</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.0530114559224</v>
+        <v>1.01140386511335</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.001679569963963</v>
+        <v>1.001152677235014</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.016554781430028</v>
+        <v>1.002729991227482</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.028312191864608</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>1.002722558666207</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5661,37 +5661,37 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.441188082141694</v>
+        <v>1.345194539230278</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.067519703512068</v>
+        <v>1.032067610383686</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.035220419953365</v>
+        <v>1.011352232957571</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.003664169870631</v>
+        <v>1.101195942071213</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.027268176713055</v>
+        <v>1.04501688196924</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.09533042315404</v>
+        <v>1.004493997575568</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.001161919207601</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.00167233118838</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>1.040420012515608</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.000275258727036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.000565317165559</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>3.860099902933894</v>
+        <v>17.69240595453631</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.140639405139219</v>
+        <v>1.143686763741921</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.00913339160856</v>
+        <v>1.02290078992067</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.038879702341573</v>
+        <v>1.016141094989724</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.352542204196834</v>
+        <v>1.022281619469289</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.007879804330739</v>
+        <v>1.007538839173146</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.029454502512536</v>
+        <v>1.154231856441344</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9824442001690609</v>
+        <v>1.000067581619891</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.105277873462036</v>
+        <v>1.066678036773984</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.00036071105675</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.000503038312295</v>
+        <v>1.000004902300914</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,31 +5808,31 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.279841653158667</v>
+        <v>6.661539000630738</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.140852108732176</v>
+        <v>1.442360091948219</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>2.970010497458709</v>
+        <v>1.060675904964483</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>8.947628589155489</v>
+        <v>1.007900814966292</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.268726185171376</v>
+        <v>1.151136516275391</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.047714212884379</v>
+        <v>1.075715234025403</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.004453514002347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.036979639913576</v>
+        <v>1.002286899280011</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.000754104935529</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>1</v>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v/>
+        <v>3.943376728669497</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v/>
+        <v>1.368827284026037</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>183.3989189860835</v>
+        <v>1.030049738687219</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.093627381402844</v>
+        <v>1.013260877944882</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.055045013344171</v>
+        <v>1.118887699462399</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.009124266532632</v>
+        <v>1.045680216607887</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.003965483131422</v>
+        <v>1.000156523553896</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.000884145369611</v>
+        <v>1.000405486287431</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.004734149603297</v>
+        <v>1.00022923739018</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v/>
+        <v>5.680279809751619</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v/>
+        <v>1.109575753183651</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.267459169296615</v>
+        <v>1.063608280634242</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.051434787365292</v>
+        <v>1.175429963400573</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.056782678054812</v>
+        <v>1.006064330616857</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.010769823923822</v>
+        <v>1.093450529956609</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.039951391408865</v>
+        <v>1.055262561744221</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.011403140657206</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v/>
+        <v>4.925782017374259</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.345194539230278</v>
+        <v>1.254838471336082</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.032067610383686</v>
+        <v>1.081843221338379</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.011352232957571</v>
+        <v>1.013476387948283</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.101195942071213</v>
+        <v>1.106543508714009</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.04501688196924</v>
+        <v>1.045105660164043</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.004493997575568</v>
+        <v>1.001779391355282</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>17.70351036008852</v>
+        <v>9.608803814525603</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.143596637204041</v>
+        <v>1.742363303583629</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.022888229230062</v>
+        <v>1.196595691549491</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.01613243997387</v>
+        <v>1.008772735445499</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.022269861527358</v>
+        <v>1.008062568575431</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.007534947615398</v>
+        <v>1.069198283611201</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>6.661539000630738</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.442360091948219</v>
+        <v>1.078240787125167</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.060675904964483</v>
+        <v>1.092699525719755</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.007900814966292</v>
+        <v>1.008097833832402</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.151136516275391</v>
+        <v>1.003305825790596</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>3.953811878227237</v>
+        <v>5.208481920188925</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.368482888070624</v>
+        <v>1.277325674945881</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.029977971958617</v>
+        <v>1.01754066986866</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.013230129242613</v>
+        <v>1.007419991624692</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>5.688359803076239</v>
+        <v>10.91777649498058</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.109420107024667</v>
+        <v>1.11343416384024</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.063526839921284</v>
+        <v>1.02348848363803</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.925782017374259</v>
+        <v>13.35986617231091</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.254838471336082</v>
+        <v>1.244513504757562</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>9.608803814525603</v>
+        <v>8.049493167562723</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07851784818617465</v>
+        <v>0.07543997947368938</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.08481778863059361</v>
+        <v>0.06745791023953242</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.09398384124700813</v>
+        <v>0.07217091472857817</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1044390444430706</v>
+        <v>0.06267597275832607</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.006091018482055404</v>
+        <v>0.00554130118724666</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.003138206141390541</v>
+        <v>0.002546030568451971</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06970351244661922</v>
+        <v>0.05969868787428495</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.09124963304269718</v>
+        <v>0.06031103143094006</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.09893599257756948</v>
+        <v>0.06708916119270651</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.165477424650589</v>
+        <v>6.409128796946985</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>5.117480521887888</v>
+        <v>6.874188989301812</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.930759499904423</v>
+        <v>8.301732098802209</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>5.777095737036794</v>
+        <v>10.46794551216441</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>6.991390739473589</v>
+        <v>7.560814653516849</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>6.710218553751893</v>
+        <v>8.604780508053116</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>8.090301145653767</v>
+        <v>9.428884313913748</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>6.740981878325367</v>
+        <v>10.7757119449514</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>5.853927618470609</v>
+        <v>9.384838805483309</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.484100020424002</v>
+        <v>0.4835045448859121</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4340533812266668</v>
+        <v>0.4637184238099037</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.5573955593132026</v>
+        <v>0.5991435994021546</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.6033543584322595</v>
+        <v>0.656088667756058</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.04258469020940463</v>
+        <v>0.04189675121608486</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.02105804907545695</v>
+        <v>0.02190803420832291</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.5639224066029751</v>
+        <v>0.5628920216590783</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.6151121227446612</v>
+        <v>0.6498943018027205</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.5794651112026281</v>
+        <v>0.6263244440270315</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.301587957106769</v>
+        <v>1.296978553492776</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.334086845152159</v>
+        <v>1.256632764166835</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.277917433983422</v>
+        <v>1.237734142914797</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.250879937053228</v>
+        <v>1.208554698931863</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.311255183523779</v>
+        <v>1.318124902838646</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.33090034261315</v>
+        <v>1.283669121610788</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.277315455802319</v>
+        <v>1.285119317598094</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.244247155477124</v>
+        <v>1.211757781181228</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.264398685518325</v>
+        <v>1.22314442092333</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.630098756619022</v>
+        <v>0.6270950252333132</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5790649059883111</v>
+        <v>0.5827237647073271</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.7123055028712824</v>
+        <v>0.741580489488912</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7547238618965354</v>
+        <v>0.79291904233253</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.05583939577583613</v>
+        <v>0.05522515112595678</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.02802616472929018</v>
+        <v>0.02812266702841697</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.7203068058272195</v>
+        <v>0.723383410755926</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7653515090245405</v>
+        <v>0.7875144771547878</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.7329014304526226</v>
+        <v>0.7663909689696269</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.159152283688344</v>
+        <v>1.145811815729992</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.204303548456179</v>
+        <v>1.170157003103373</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.081573702287808</v>
+        <v>1.066929136406002</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.048562465872855</v>
+        <v>1.037518270046975</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>9.881324792576148</v>
+        <v>9.86637883332499</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>16.4501204400033</v>
+        <v>16.27398943559694</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.079432620959125</v>
+        <v>1.079295978791426</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.051393572281461</v>
+        <v>1.044576226408815</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.065068084080331</v>
+        <v>1.052223703226488</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7303804126841256</v>
+        <v>0.7185328894978275</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.6973699210681666</v>
+        <v>0.6818782941470412</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7704108999004717</v>
+        <v>0.7912138312259448</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7913751136833153</v>
+        <v>0.8226679930881509</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5517672058822414</v>
+        <v>0.5448722621363138</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.4610337852681958</v>
+        <v>0.4576679861212681</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7775226633087707</v>
+        <v>0.7807448063532977</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8046856571243188</v>
+        <v>0.8226189007886595</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7807523030540862</v>
+        <v>0.8066343951978912</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.102488746195574</v>
+        <v>1.094023066098719</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.123047580909708</v>
+        <v>1.129240024524373</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.033642294856183</v>
+        <v>1.032583538573421</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.012400119586471</v>
+        <v>1.007969066151509</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.449451823360931</v>
+        <v>1.441563733858281</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.699947424611726</v>
+        <v>1.697087958750807</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.032279630984747</v>
+        <v>1.037742965032722</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.012421128060925</v>
+        <v>1.008096853634198</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.023021207221327</v>
+        <v>1.020276302362465</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8052361854259278</v>
+        <v>0.7860915548611852</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7831796028547983</v>
+        <v>0.7700042616052427</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7963292905553411</v>
+        <v>0.8169943776155197</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8011882597307453</v>
+        <v>0.8292238887457999</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7997599826367811</v>
+        <v>0.7854680926810323</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7837331959256649</v>
+        <v>0.7767028283521353</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8026208079626556</v>
+        <v>0.8102124302789693</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8146807607202496</v>
+        <v>0.82927952562507</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7987513856838653</v>
+        <v>0.8230637075692626</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.092537926443359</v>
+        <v>1.091982657768884</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.09243737220177</v>
+        <v>1.118841729570137</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.11301286355705</v>
+        <v>1.068746133163619</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.095189784033724</v>
+        <v>1.046041359498244</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.097715518014895</v>
+        <v>1.088623517282476</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.092058539426223</v>
+        <v>1.104427705294307</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.109192699407387</v>
+        <v>1.065666741572447</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.091534106624654</v>
+        <v>1.039303967693345</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.104101323795387</v>
+        <v>1.057393746330931</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8797510723224029</v>
+        <v>0.8583983453269916</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8555746673047215</v>
+        <v>0.861512899830786</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8863247440153539</v>
+        <v>0.8731595818930044</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8774531971448704</v>
+        <v>0.8674024839120767</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8779089436277175</v>
+        <v>0.8550790377675829</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8558825292424278</v>
+        <v>0.8578121224125466</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8902611405846356</v>
+        <v>0.8634164405568824</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8892518363370712</v>
+        <v>0.8618735013089904</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8818666592839909</v>
+        <v>0.8702715117892711</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.022322678131498</v>
+        <v>1.032725039263294</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.025642653137535</v>
+        <v>1.037095159487418</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.022031971385721</v>
+        <v>1.056505847191517</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.023290141272153</v>
+        <v>1.067132733843241</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.022201419486587</v>
+        <v>1.035150282572373</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.024885804973827</v>
+        <v>1.040401617636912</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.021339989542702</v>
+        <v>1.056114793923048</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.021107217836153</v>
+        <v>1.069251491243951</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.022661056328937</v>
+        <v>1.061819290517379</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8993894723456963</v>
+        <v>0.8864894648813639</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8775138717316785</v>
+        <v>0.893470858250477</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9058522254139569</v>
+        <v>0.9224982038012595</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.8978892060660768</v>
+        <v>0.9256335839995125</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8973997683562233</v>
+        <v>0.8851353075668265</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8771818549456605</v>
+        <v>0.8924691197865664</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9092593040149852</v>
+        <v>0.9118668761885037</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9080214685578371</v>
+        <v>0.9215595265382832</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9018531384764391</v>
+        <v>0.9240632342932484</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.035293258003006</v>
+        <v>1.042744395385112</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.045916813666642</v>
+        <v>1.038115429701366</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.030708178305166</v>
+        <v>1.026476573020544</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.01693291213664</v>
+        <v>1.016515541659003</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.036226875362066</v>
+        <v>1.04553090743348</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.046877057964118</v>
+        <v>1.040675381426109</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.029608218630797</v>
+        <v>1.035987388445052</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.016136957371952</v>
+        <v>1.019066158884466</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.023820545220903</v>
+        <v>1.021496057339773</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9311318570383806</v>
+        <v>0.9243819210729893</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9178065126698757</v>
+        <v>0.9275258839383422</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9336692970701006</v>
+        <v>0.9469227948555239</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.913093085100831</v>
+        <v>0.9409209240170286</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9299097579144106</v>
+        <v>0.9254363213217568</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9183015596050211</v>
+        <v>0.9287706416449085</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.936180852280347</v>
+        <v>0.9446825836720754</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.922674172288772</v>
+        <v>0.9391301268927559</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9232665633176783</v>
+        <v>0.9439123188018471</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.025051707117001</v>
+        <v>1.016323933958228</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.034110662525151</v>
+        <v>1.009507528932378</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.014042419123472</v>
+        <v>1.00273385634831</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.018132810192389</v>
+        <v>1.00081195049405</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.024773595643476</v>
+        <v>1.015358940119867</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.032907530641123</v>
+        <v>1.008562657871382</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.014314083539909</v>
+        <v>1.002360638716781</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.016422308646798</v>
+        <v>1.000897461855814</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.016087614657931</v>
+        <v>1.00177290342118</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9544582996082154</v>
+        <v>0.9394714705047649</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9491135008869438</v>
+        <v>0.9363443631154152</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9467802726622768</v>
+        <v>0.9495115457495992</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9296500287009476</v>
+        <v>0.941684905226146</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9529469662419046</v>
+        <v>0.9396500423656875</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9485205963155144</v>
+        <v>0.9367233868902973</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9495814232083511</v>
+        <v>0.9469126379541601</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9378266123265268</v>
+        <v>0.9399729603592881</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9381369582600867</v>
+        <v>0.945582030369208</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.013449144578234</v>
+        <v>1.014814811885037</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.016902908250587</v>
+        <v>1.016291729052612</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.022761666457829</v>
+        <v>1.008832045633911</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.045541760679053</v>
+        <v>1.017795165394945</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.012968061487854</v>
+        <v>1.014202265369397</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.015832741563164</v>
+        <v>1.015361666093536</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.019061217774111</v>
+        <v>1.012132350167079</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.036922042666954</v>
+        <v>1.022302424721388</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.034151713568441</v>
+        <v>1.013313605514428</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9672949472735416</v>
+        <v>0.9533895636116516</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.965156279311829</v>
+        <v>0.9515990317792318</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9683305694374678</v>
+        <v>0.957897675051585</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9719879278233207</v>
+        <v>0.9584423438645687</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9653048410947935</v>
+        <v>0.9529952016217303</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9635382777843159</v>
+        <v>0.9511130187817125</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9676816015103759</v>
+        <v>0.9584009136554529</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9724530865210517</v>
+        <v>0.9609366365478417</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9701558017039279</v>
+        <v>0.9581699320542463</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.006145508368954</v>
+        <v>1.007440908770826</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.007281407777562</v>
+        <v>1.008713635184675</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.003034170187945</v>
+        <v>1.015405168824706</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.00014554657536</v>
+        <v>1.017175470513852</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.006216202919497</v>
+        <v>1.008168642140205</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.007201420680145</v>
+        <v>1.009530082496906</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.002877213930627</v>
+        <v>1.01517820905343</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000120237018917</v>
+        <v>1.013473337505203</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.001589858381652</v>
+        <v>1.016290319669279</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.973239466467258</v>
+        <v>0.9604836483775437</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9721839757505729</v>
+        <v>0.9598909185842465</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9712686491833309</v>
+        <v>0.9726542504525477</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9721293973375064</v>
+        <v>0.9749040420808418</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9713053718662118</v>
+        <v>0.9607798783851111</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9704771222640634</v>
+        <v>0.9601772043145838</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9704658284946527</v>
+        <v>0.9729477230799137</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9725700113812112</v>
+        <v>0.9738836601731651</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9716988326439399</v>
+        <v>0.9737778468030562</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.009648243133395</v>
+        <v>1.007799915682325</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.010744408441944</v>
+        <v>1.008422229139138</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.014803992214533</v>
+        <v>1.000160969311418</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.009566675547228</v>
+        <v>1.000001149732086</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.0106571225626</v>
+        <v>1.007589197666198</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.011519663616343</v>
+        <v>1.008221630805048</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.016212371919003</v>
+        <v>1.000125813773859</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.009696829634646</v>
+        <v>1.000001634100305</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.01218533388088</v>
+        <v>1.000081059521752</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9826295174667498</v>
+        <v>0.9679753398491405</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9826295174667498</v>
+        <v>0.9679753398491405</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9856473027040611</v>
+        <v>0.9728108179374912</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9814294438717562</v>
+        <v>0.9749051629592997</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9816566922599015</v>
+        <v>0.968071426795881</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9816566922599015</v>
+        <v>0.968071426795881</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9861993814408909</v>
+        <v>0.9730701333047219</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9820008570893407</v>
+        <v>0.9738852515967509</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9835338512647694</v>
+        <v>0.9738568644420594</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.016834932914086</v>
+        <v>1.012003836649161</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.016834932914086</v>
+        <v>1.012003836649161</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.008007097216542</v>
+        <v>1.001002941660603</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000237059259186</v>
+        <v>1.000969856120112</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.016673870528838</v>
+        <v>1.012722289444916</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.016673870528838</v>
+        <v>1.012722289444916</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.00846022692276</v>
+        <v>1.000903081022777</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.000250127440652</v>
+        <v>1.000907519555402</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.004122078237864</v>
+        <v>1.000986398890357</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9991720194727033</v>
+        <v>0.9795947577091052</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9991720194727033</v>
+        <v>0.9795947577091052</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9935394764780355</v>
+        <v>0.9737864904346858</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9816621008086638</v>
+        <v>0.9758506806981245</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9980247088504102</v>
+        <v>0.980387511690931</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9980247088504102</v>
+        <v>0.980387511690931</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.994542851998966</v>
+        <v>0.9739488944759406</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9822464824504428</v>
+        <v>0.9747690715072928</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9875650778444079</v>
+        <v>0.9748174928293803</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000323414420555</v>
+        <v>1.000141742144817</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000323414420555</v>
+        <v>1.000141742144817</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000125029926314</v>
+        <v>1.000131056034883</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.00011602983283</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000282029500258</v>
+        <v>1.000124402870309</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000282029500258</v>
+        <v>1.000124402870309</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000128720004529</v>
+        <v>1.000099351924371</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000118894923338</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000120529879572</v>
+        <v>1.000065528017442</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9994951661124156</v>
+        <v>0.9797336075711148</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9994951661124156</v>
+        <v>0.9797336075711148</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9936636986455695</v>
+        <v>0.9739141110309447</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9817760028981166</v>
+        <v>0.9758506806981245</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9983061812602921</v>
+        <v>0.9805094747114007</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9983061812602921</v>
+        <v>0.9805094747114007</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9946708695593793</v>
+        <v>0.9740456581728462</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9823632665706727</v>
+        <v>0.9747690715072928</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9876840822009081</v>
+        <v>0.974881434132614</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>0.9962780364757121</v>
+        <v>1.0034981514078</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>0.9962780364757121</v>
+        <v>1.0034981514078</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.005599233022999</v>
+        <v>1.000114610578053</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.011938453564996</v>
+        <v>1.00023156731133</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>0.9985814163574638</v>
+        <v>1.003504177105584</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>0.9985814163574638</v>
+        <v>1.003504177105584</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.005679556724835</v>
+        <v>1.000160738451139</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.01135911344967</v>
+        <v>1.000321476902279</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.008768843293998</v>
+        <v>1.000173088944692</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.995775081561443</v>
+        <v>0.9831608640697083</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.995775081561443</v>
+        <v>0.9831608640697083</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9992274532407809</v>
+        <v>0.9740257318901839</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9934968901199436</v>
+        <v>0.9760766558165134</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9968900004413135</v>
+        <v>0.983945353564493</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9968900004413135</v>
+        <v>0.983945353564493</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1.000320159185583</v>
+        <v>0.9742022247632798</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9935220423644371</v>
+        <v>0.975082437248838</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.996353931866915</v>
+        <v>0.9750501153743472</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>0.9948556949004049</v>
+        <v>1.002680722358021</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>0.9948556949004049</v>
+        <v>1.002680722358021</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>0.9916690137892514</v>
+        <v>1.011973075447409</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.000322878990848</v>
+        <v>1.012044184706856</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>0.9944331310810504</v>
+        <v>1.002019370423703</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>0.9944331310810504</v>
+        <v>1.002019370423703</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>0.9912990021054343</v>
+        <v>1.011908073493428</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.000305091413684</v>
+        <v>1.013072966323431</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>0.9959959463900497</v>
+        <v>1.012008630077132</v>
       </c>
     </row>
     <row r="17">
@@ -7663,41 +7663,41 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9906525107313167</v>
+        <v>0.9857964453795515</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9906525107313167</v>
+        <v>0.9857964453795515</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9856878154658224</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.987832703347218</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.991340444482245</v>
+        <v>0.9859323037100213</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.991340444482245</v>
+        <v>0.9859323037100213</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9858030964532221</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9938251574088681</v>
+        <v>0.9878296571135606</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.992358145932797</v>
+        <v>0.9867590938386985</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000252754999762</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000252754999762</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
         <v>1</v>
@@ -7706,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000278341417329</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000278341417329</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
         <v>1</v>
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9857964453795515</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9857964453795515</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9856878154658224</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.987832703347218</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9859323037100213</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9859323037100213</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9858030964532221</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9938251574088681</v>
+        <v>0.9878296571135606</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.992358145932797</v>
+        <v>0.9867590938386985</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.00073065424886</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.00073065424886</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.000840941992029</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1</v>
+        <v>1.001629234074823</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.000787027025179</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.000787027025179</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.000918198196042</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1</v>
+        <v>1.001836396392084</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.001235088033426</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9865167217408795</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9865167217408795</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9909029031064305</v>
+        <v>0.9865167217408795</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.9894421140477356</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9867082590780379</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9867082590780379</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9916163755866175</v>
+        <v>0.9867082590780379</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9938251574088681</v>
+        <v>0.9896437039318778</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.992358145932797</v>
+        <v>0.9879772523835708</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.003084237255449</v>
+        <v>1.005344067730894</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.003084237255449</v>
+        <v>1.005344067730894</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.003084237255449</v>
+        <v>1.005344067730894</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.002330911776799</v>
+        <v>1.005445923621717</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.002330911776799</v>
+        <v>1.005445923621717</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.002330911776799</v>
+        <v>1.005445923621717</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.001542118627724</v>
+        <v>1.002672033865447</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9917887339195222</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9917887339195222</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9917887339195222</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.9894421140477356</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9939277458745389</v>
+        <v>0.9920817968938939</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9939277458745389</v>
+        <v>0.9920817968938939</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9939277458745389</v>
+        <v>0.9920817968938939</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9938251574088681</v>
+        <v>0.9896437039318778</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9938883710448027</v>
+        <v>0.9906140342856975</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1</v>
+        <v>1.000125413657486</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1</v>
+        <v>1.000125413657486</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1</v>
+        <v>1.000125413657486</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1</v>
+        <v>1.0001318630595</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1</v>
+        <v>1.0001318630595</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1</v>
+        <v>1.0001318630595</v>
       </c>
       <c r="U20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1</v>
+        <v>1.000062706828743</v>
       </c>
     </row>
     <row r="21">
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9919131177720962</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9919131177720962</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9939590827567236</v>
+        <v>0.9919131177720962</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9938176693932362</v>
+        <v>0.9894421140477356</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9939277458745389</v>
+        <v>0.9922126158349061</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9939277458745389</v>
+        <v>0.9922126158349061</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9939277458745389</v>
+        <v>0.9922126158349061</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9938251574088681</v>
+        <v>0.9896437039318778</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9938883710448027</v>
+        <v>0.9906760750808642</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.000525816989196</v>
+        <v>1.008152813067003</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.000525816989196</v>
+        <v>1.008152813067003</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.000525816989196</v>
+        <v>1.008152813067003</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.000668184875574</v>
+        <v>1.010670544342481</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.000557361897546</v>
+        <v>1.007848503476789</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.000557361897546</v>
+        <v>1.007848503476789</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.000557361897546</v>
+        <v>1.007848503476789</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.000660645300876</v>
+        <v>1.010464671302385</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.000597000932385</v>
+        <v>1.009411678704742</v>
       </c>
     </row>
     <row r="22">
@@ -7983,31 +7983,31 @@
         <v/>
       </c>
       <c r="B22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="C22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="D22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="H22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="I22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="J22" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <f>+M21+1</f>
@@ -8047,31 +8047,31 @@
         <v/>
       </c>
       <c r="B23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="C23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="D23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="E23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="F23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="G23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="H23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="I23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="J23" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <f>+M22+1</f>
@@ -8111,62 +8111,62 @@
         <v/>
       </c>
       <c r="B24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="C24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="D24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="E24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="F24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="G24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="H24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="I24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="J24" s="34" t="n">
-        <v>0.9944817233290031</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f>+M23+1</f>
         <v/>
       </c>
       <c r="N24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1.005548897019972</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>72982.93000000001</v>
+        <v>46305.79000000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>67859.82666666668</v>
+        <v>61355.87083333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>6181.89</v>
+        <v>3098.94</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>38188.02</v>
+        <v>24655.88</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>51098.38</v>
+        <v>35055.64</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>56627.35000000001</v>
+        <v>36932.36</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>67882.58</v>
+        <v>40699.65</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>67985.73</v>
+        <v>42567.72</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>68222.81</v>
+        <v>42761.83</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>71465.98</v>
+        <v>44489.78</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>71465.98</v>
+        <v>44552.19</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>71507.28</v>
+        <v>44552.19</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>71519.44</v>
+        <v>44552.19</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>71541.37</v>
+        <v>44552.19</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>75281.40999999999</v>
+        <v>48875.85000000001</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>75281.40999999999</v>
+        <v>48879.28000000001</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>71561.40999999999</v>
+        <v>48879.28000000001</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>71561.40999999999</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>71561.40999999999</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>71561.40999999999</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>72562.23</v>
+        <v>46275.28000000001</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>72562.23</v>
+        <v>46305.79000000001</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>72580.19</v>
+        <v>46305.79000000001</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>72580.19</v>
+        <v>46305.79000000001</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>72580.19</v>
+        <v>46305.79000000001</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>72982.93000000001</v>
+        <v>46305.79000000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>47916.71</v>
+        <v>52565.13</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>67042.47666666667</v>
+        <v>60729.9575</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>3569.63</v>
+        <v>2603.49</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>26037.05</v>
+        <v>25823.28</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>31385.44</v>
+        <v>30532.75</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>40763.62</v>
+        <v>35305.87</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>42519.62</v>
+        <v>35356.37</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>44423.2</v>
+        <v>45532.06</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>45850.41</v>
+        <v>46983.05</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>46002.48</v>
+        <v>47086.07</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>46040.23</v>
+        <v>47086.07</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>46095.41</v>
+        <v>47086.07</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>46115.68</v>
+        <v>47086.07</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>47715.68</v>
+        <v>47139.43</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>47715.68</v>
+        <v>49352.51</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>47715.68</v>
+        <v>49352.51</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>47715.68</v>
+        <v>49352.51</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>47715.68</v>
+        <v>49352.51</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>47821.93</v>
+        <v>49352.51</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>47821.93</v>
+        <v>49352.51</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>47821.93</v>
+        <v>50965.13</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>47821.93</v>
+        <v>50965.13</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>47916.71</v>
+        <v>52565.13</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>47916.71</v>
+        <v>52565.13</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>47916.71</v>
+        <v>52565.13</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>64103.79416666667</v>
+        <v>60206.21833333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>4664.32</v>
+        <v>5518.87</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>26522.84</v>
+        <v>25372.63</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>32023.87</v>
+        <v>30359.72</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>37780.83</v>
+        <v>35718.6</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>38137.97</v>
+        <v>39458.75</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>49326.83</v>
+        <v>39980.06</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>49491.04</v>
+        <v>42144.69</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>49491.04</v>
+        <v>42095.23</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>49491.04</v>
+        <v>42095.23</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>49627.22</v>
+        <v>43303.10999999999</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>49627.22</v>
+        <v>43564.16</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>49881.97</v>
+        <v>46375.69</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>49881.97</v>
+        <v>46518.02999999999</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>49881.97</v>
+        <v>46534.09999999999</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>49881.97</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>49986.93</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>63456.97416666666</v>
+        <v>59439.09166666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>3046.37</v>
+        <v>4004.98</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>24925.48</v>
+        <v>30333.79</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>34581.72</v>
+        <v>36608.93</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>35807.54</v>
+        <v>37528.42</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>40381.52</v>
+        <v>42551.47</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>40400.27</v>
+        <v>42551.47</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>40486.66</v>
+        <v>42551.47</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>40536.81</v>
+        <v>44199.61</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>40563.83</v>
+        <v>50457.76</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>42380.74000000001</v>
+        <v>50554.01</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>43980.74000000001</v>
+        <v>50565.65</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>43980.74000000001</v>
+        <v>50660.98</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>43980.74000000001</v>
+        <v>50660.98</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>43980.74000000001</v>
+        <v>50679.05</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>44031.38</v>
+        <v>52312.19</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>44038.11000000001</v>
+        <v>52360.07</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>64811.48000000001</v>
+        <v>47054.17</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>62015.92416666666</v>
+        <v>58651.46416666666</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>5462.39</v>
+        <v>2346.91</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>37828.79</v>
+        <v>16810.48</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>44676.02</v>
+        <v>26719.15</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>47921.98</v>
+        <v>34887.59</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>48033.46000000001</v>
+        <v>36617.06</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>51785.15000000001</v>
+        <v>38192.33</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>54651.65000000001</v>
+        <v>38192.33</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>54719.36000000001</v>
+        <v>46050.79</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>63046.15000000001</v>
+        <v>46688.32</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>63060.82000000001</v>
+        <v>46699.96</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>64660.82000000001</v>
+        <v>46705.45</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>64660.82000000001</v>
+        <v>46787.7</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>64660.82000000001</v>
+        <v>46796.36</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>46796.36</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>46796.36</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>46796.36</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>46796.36</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>47054.17</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>47054.17</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>64811.48000000001</v>
+        <v>47054.17</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>46275.28000000001</v>
+        <v>60096.58</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>61355.87083333333</v>
+        <v>57459.95916666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>3098.94</v>
+        <v>2523.67</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>24655.88</v>
+        <v>19426.47</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>35055.64</v>
+        <v>37346.05</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>36932.36</v>
+        <v>43830.37</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>40699.65</v>
+        <v>43854.60000000001</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>42567.72</v>
+        <v>45482.31</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>42761.83</v>
+        <v>48089.15000000001</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>44489.78</v>
+        <v>52849.52000000001</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>44552.19</v>
+        <v>55651.15000000001</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>44552.19</v>
+        <v>55744.62000000001</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>44552.19</v>
+        <v>56667.46000000001</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>44552.19</v>
+        <v>58271.84</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>48875.85000000001</v>
+        <v>58271.84</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>48879.28000000001</v>
+        <v>58271.84</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>48879.28000000001</v>
+        <v>58271.84</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>60096.58</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>60096.58</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>60096.58</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>60096.58</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>49358.37</v>
+        <v>51347.06</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>60729.9575</v>
+        <v>56540.92916666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>2603.49</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>25823.28</v>
+        <v>27432.11</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>30532.75</v>
+        <v>39534.83</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>35305.87</v>
+        <v>42204.21</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>35362.23</v>
+        <v>43690.66</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>45537.92000000001</v>
+        <v>43850.74999999999</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>46988.91</v>
+        <v>45046.48</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>47091.93</v>
+        <v>49340.78</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>47091.93</v>
+        <v>49398.11</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>47091.93</v>
+        <v>49480.72</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>47091.93</v>
+        <v>49480.72</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>47145.29</v>
+        <v>49494.34</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>49358.37</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>49358.37</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>49358.37</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>49358.37</v>
+        <v>51347.06</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>49358.37</v>
+        <v>51347.06</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>49358.37</v>
+        <v>51347.06</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>46620.28999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>60206.21833333333</v>
+        <v>55091.66583333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>5518.87</v>
+        <v>9447.17</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>25372.63</v>
+        <v>36467.02</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>30359.72</v>
+        <v>41595.71999999999</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>35718.6</v>
+        <v>41975.63</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>39458.75</v>
+        <v>43607.63</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>39980.06</v>
+        <v>58981.16</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>42144.69</v>
+        <v>59445.92</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>42095.23</v>
+        <v>61196.87</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>42095.23</v>
+        <v>60122.50999999999</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>43303.10999999999</v>
+        <v>66452.08</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>43564.16</v>
+        <v>66476.05</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>46375.69</v>
+        <v>66509.49000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>46518.02999999999</v>
+        <v>66648.60000000001</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>46534.09999999999</v>
+        <v>66688.33</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>66688.33</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>52360.07</v>
+        <v>48427.31</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>59439.09166666667</v>
+        <v>54461.23416666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>4004.98</v>
+        <v>906.87</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>30333.79</v>
+        <v>1160.65</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>36608.93</v>
+        <v>1324.13</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>37528.42</v>
+        <v>3891.08</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>42551.47</v>
+        <v>34856.83</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>42551.47</v>
+        <v>44312.81</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>42551.47</v>
+        <v>46442.97</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>44199.61</v>
+        <v>46651.28</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>50457.76</v>
+        <v>48388.68</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>50554.01</v>
+        <v>48425.42</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>50565.65</v>
+        <v>48425.42</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>50660.98</v>
+        <v>48425.42</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>50660.98</v>
+        <v>48427.31</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>50679.05</v>
+        <v>48427.31</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>52312.19</v>
+        <v>48427.31</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>52360.07</v>
+        <v>48427.31</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>46802.99</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>58651.46416666666</v>
+        <v>52255.39000000001</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>2353.54</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>16817.11</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>26725.78</v>
+        <v>160.96</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>34894.22</v>
+        <v>29519.89</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>36623.69</v>
+        <v>32283.76</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>38198.96</v>
+        <v>34060.82</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>38198.96</v>
+        <v>34371.6</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>46057.42</v>
+        <v>34507.9</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>46694.95</v>
+        <v>34538.41</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>46706.59</v>
+        <v>34701.92000000001</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>46712.07999999999</v>
+        <v>36364.81</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>46794.32999999999</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>46802.99</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>46802.99</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>46802.99</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>58271.84</v>
+        <v>43908.91000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>57459.95916666667</v>
+        <v>50900.79749999999</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>2523.67</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>19426.47</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>37346.05</v>
+        <v>29132.81</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>43830.37</v>
+        <v>36925.38</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>43854.60000000001</v>
+        <v>38824.77</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>45482.31</v>
+        <v>41029.50000000001</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>48089.15000000001</v>
+        <v>41471.41000000001</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>52849.52000000001</v>
+        <v>43128.36000000001</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>55651.15000000001</v>
+        <v>43620.19000000001</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>55744.62000000001</v>
+        <v>43670.47000000001</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>56667.46000000001</v>
+        <v>43789.69000000001</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>58271.84</v>
+        <v>43789.69000000001</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>58271.84</v>
+        <v>43908.91000000001</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>58271.84</v>
+        <v>43908.91000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>49522.32000000001</v>
+        <v>42761.97</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>56540.92916666667</v>
+        <v>49854.32166666666</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>27432.11</v>
+        <v>25323.17</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>39534.83</v>
+        <v>34064.59</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>42204.21</v>
+        <v>35156.96000000001</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>43690.66</v>
+        <v>35556.07000000001</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>43850.74999999999</v>
+        <v>39154.2</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>45046.48</v>
+        <v>40916.8</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>49340.78</v>
+        <v>41100.68</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>49398.11</v>
+        <v>41100.68</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>49480.72</v>
+        <v>41100.68</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>49480.72</v>
+        <v>42761.97</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>49494.34</v>
+        <v>42761.97</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>42761.97</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>66509.49000000001</v>
+        <v>26518.29</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>55091.66583333333</v>
+        <v>49175.245</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>9447.17</v>
+        <v>994.2</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>36467.02</v>
+        <v>17589.79</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>41595.71999999999</v>
+        <v>20117.21</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>41975.63</v>
+        <v>20577.91</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>43607.63</v>
+        <v>20910.06</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>58981.16</v>
+        <v>21375.97</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>59445.92</v>
+        <v>21537.12</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>61196.87</v>
+        <v>24858.83</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>60122.50999999999</v>
+        <v>24860.51</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>66452.08</v>
+        <v>26518.16</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>66476.05</v>
+        <v>26518.16</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>66509.49000000001</v>
+        <v>26518.29</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>48756.75</v>
+        <v>29105.73</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>54461.23416666667</v>
+        <v>48059.1575</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>906.87</v>
+        <v>2283.04</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1160.65</v>
+        <v>15208.56</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1324.13</v>
+        <v>21936.22</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>3932.68</v>
+        <v>23267.22</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>35188.16</v>
+        <v>23451.05</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>44644.14</v>
+        <v>26995.36</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>46774.3</v>
+        <v>29039.32</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>46982.61</v>
+        <v>29039.32</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>48720.01</v>
+        <v>29105.73</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>48756.75</v>
+        <v>29105.73</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>48756.75</v>
+        <v>29105.73</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>34701.92000000001</v>
+        <v>39705.94</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>52255.39000000001</v>
+        <v>46286.77583333334</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>6019.08</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v/>
+        <v>23735.5</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>160.96</v>
+        <v>32489.8</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>29519.89</v>
+        <v>33466.11</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>32283.76</v>
+        <v>33909.9</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>34060.82</v>
+        <v>37941.37</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>34371.6</v>
+        <v>39674.54</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>34507.9</v>
+        <v>39680.75</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>34538.41</v>
+        <v>39696.84</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>34701.92000000001</v>
+        <v>39705.94</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>43622.93</v>
+        <v>32887.11</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>50900.79749999999</v>
+        <v>45773.54583333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v/>
+        <v>3595.3</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>20422.31</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>29135.55</v>
+        <v>22660.1</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>36928.12</v>
+        <v>24101.47</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>38827.50999999999</v>
+        <v>28329.59</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>41032.24</v>
+        <v>28501.39</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>41474.15</v>
+        <v>31164.86</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>43131.1</v>
+        <v>32887.11</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>43622.93</v>
+        <v>32887.11</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>41100.67999999999</v>
+        <v>37968.04</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>49854.32166666666</v>
+        <v>44920.35</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>4835.889999999999</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>25323.17</v>
+        <v>23820.54</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>34064.59</v>
+        <v>29890.93</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>35156.96</v>
+        <v>32337.3</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>35556.07</v>
+        <v>32773.09</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>39154.2</v>
+        <v>36264.85</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>40916.8</v>
+        <v>37900.6</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>41100.67999999999</v>
+        <v>37968.04</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>21548.16</v>
+        <v>25216.4</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>49175.245</v>
+        <v>43901.69</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>994.2</v>
+        <v>1157.68</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>17600.83</v>
+        <v>11123.92</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>20128.25</v>
+        <v>19381.91</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>20588.95</v>
+        <v>23192.31</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>20921.1</v>
+        <v>23395.77</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>21387.01</v>
+        <v>23584.4</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>21548.16</v>
+        <v>25216.4</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>26995.36</v>
+        <v>25690.96</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>48059.1575</v>
+        <v>43909.92000000001</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>2283.04</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>15208.56</v>
+        <v>21558.96</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>21936.22</v>
+        <v>23245.75</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>23267.22</v>
+        <v>25400.62</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>23451.05</v>
+        <v>25606.31</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>26995.36</v>
+        <v>25690.96</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>33987.68</v>
+        <v>40199.09</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>46286.77583333334</v>
+        <v>41547.08</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>6019.08</v>
+        <v>5894.42</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>23798.31</v>
+        <v>30700.98</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>32567.58</v>
+        <v>39215.15</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>33543.89</v>
+        <v>39903.01</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>33987.68</v>
+        <v>40199.09</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>24130.52</v>
+        <v>36424.86</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>45773.54583333334</v>
+        <v>40847.31416666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>3595.3</v>
+        <v>2927.63</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>20451.36</v>
+        <v>31963.21</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>22689.15</v>
+        <v>35588.93</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>24130.52</v>
+        <v>36424.86</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>29890.93</v>
+        <v>32152.89</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>44920.35</v>
+        <v>39756.25583333334</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>110</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>4835.889999999999</v>
+        <v>1933.83</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>23820.54</v>
+        <v>25835.71</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>29890.93</v>
+        <v>32152.89</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>11123.92</v>
+        <v>22997.08</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>43901.69</v>
+        <v>38551.04583333333</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>85</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>1157.68</v>
+        <v>2856.96</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>11123.92</v>
+        <v>22997.08</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>4063.31</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>43909.92000000001</v>
+        <v>36219.39166666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>85</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>4063.31</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_PEN.xlsx
+++ b/Process Results/Unified_IBNP_PEN.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06267597275832607</v>
+        <v>0.09584116999855304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07217091472857817</v>
+        <v>0.0825265057445929</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06745791023953242</v>
+        <v>0.08694727705032122</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06708916119270651</v>
+        <v>0.08868688604592107</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.656088667756058</v>
+        <v>0.7695885423608188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5991435994021546</v>
+        <v>0.6245046949334691</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4637184238099037</v>
+        <v>0.5842132765898829</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6263244440270315</v>
+        <v>0.6894971512868489</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.79291904233253</v>
+        <v>0.8960121962802933</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.741580489488912</v>
+        <v>0.7619480982495257</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5827237647073271</v>
+        <v>0.7285821445028975</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7663909689696269</v>
+        <v>0.8235598780220021</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8226679930881509</v>
+        <v>0.9182849628540882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7912138312259448</v>
+        <v>0.8089462773329376</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6818782941470412</v>
+        <v>0.7803831683518496</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8066343951978912</v>
+        <v>0.8601548940849333</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8292238887457999</v>
+        <v>0.9235391148176023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8169943776155197</v>
+        <v>0.8332532169230922</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7700042616052427</v>
+        <v>0.8052316003704377</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8230637075692626</v>
+        <v>0.8760761582031517</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8674024839120767</v>
+        <v>0.9278906663718908</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8731595818930044</v>
+        <v>0.8699612521750343</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.861512899830786</v>
+        <v>0.8686791995144943</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8702715117892711</v>
+        <v>0.8979926741139419</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9256335839995125</v>
+        <v>0.963612308315829</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9224982038012595</v>
+        <v>0.9172739175703152</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.893470858250477</v>
+        <v>0.8998704136760663</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9240632342932484</v>
+        <v>0.9398723058343454</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9409209240170286</v>
+        <v>0.983258144141741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9469227948555239</v>
+        <v>0.9433711096331212</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9275258839383422</v>
+        <v>0.9266953173445395</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9439123188018471</v>
+        <v>0.9629017359488204</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.941684905226146</v>
+        <v>0.983640467305846</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9495115457495992</v>
+        <v>0.9438809029373814</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9363443631154152</v>
+        <v>0.9345029517414938</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.945582030369208</v>
+        <v>0.9633506188616036</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9584423438645687</v>
+        <v>0.9837284912651355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.957897675051585</v>
+        <v>0.9515519574905729</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9515990317792318</v>
+        <v>0.9500784921410932</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9581699320542463</v>
+        <v>0.9673727361886331</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9749040420808418</v>
+        <v>0.9847004576117897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9726542504525477</v>
+        <v>0.9672230712851215</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9598909185842465</v>
+        <v>0.9581151900615875</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9737778468030562</v>
+        <v>0.9758835188029962</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9749051629592997</v>
+        <v>0.9847017587241597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9728108179374912</v>
+        <v>0.9672618938872752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9679753398491405</v>
+        <v>0.966358531226263</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9738568644420594</v>
+        <v>0.9759039178658955</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9758506806981245</v>
+        <v>0.9857400199392311</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9737864904346858</v>
+        <v>0.9682139408472976</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9795947577091052</v>
+        <v>0.9709101457259391</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9748174928293803</v>
+        <v>0.9768983799107297</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9758506806981245</v>
+        <v>0.9857400199392311</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9739141110309447</v>
+        <v>0.9683476731239152</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9797336075711148</v>
+        <v>0.9710431491826478</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.974881434132614</v>
+        <v>0.9769664462877615</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9760766558165134</v>
+        <v>0.9989570992604956</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9740257318901839</v>
+        <v>0.973859534556252</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9831608640697083</v>
+        <v>0.9777802753771302</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9750501153743472</v>
+        <v>0.9862486751699359</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.987832703347218</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9856878154658224</v>
+        <v>0.9859730715294078</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9857964453795515</v>
+        <v>0.9860766674871709</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9867590938386985</v>
+        <v>0.9929369996644566</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.987832703347218</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9856878154658224</v>
+        <v>0.9859730715294078</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9857964453795515</v>
+        <v>0.9860766674871709</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9867590938386985</v>
+        <v>0.9929369996644566</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9894421140477356</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9865167217408795</v>
+        <v>0.9867574581275412</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9865167217408795</v>
+        <v>0.9867574581275412</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9879772523835708</v>
+        <v>0.993334595615441</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9894421140477356</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9917887339195222</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9917887339195222</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9906140342856975</v>
+        <v>0.9959555036646676</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9894421140477356</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9919131177720962</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9919131177720962</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9906760750808642</v>
+        <v>0.9959555036646676</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,28 +4833,28 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>7.956230194840815</v>
+        <v>9.918716799373149</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.421796342292386</v>
+        <v>1.182373037042545</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.053535465334537</v>
+        <v>1.156327877443073</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.102005125044812</v>
+        <v>1.001430357048275</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.045898920506687</v>
+        <v>1.287803583908642</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.004560028115201</v>
+        <v>1.03186743582434</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.040408700937261</v>
+        <v>1.002192705667257</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.001402794079899</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
         <v>1</v>
@@ -4863,19 +4863,19 @@
         <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>1.001133243865967</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.097047081187255</v>
+        <v>1.046947534155589</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.000070177807649</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.9467258928527589</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4884,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>1.032675541730299</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1.000659315297498</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>1.031394013907156</v>
       </c>
       <c r="V38" s="4" t="n">
         <v>1</v>
@@ -4908,46 +4908,46 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>9.918716799373149</v>
+        <v>4.597432083016995</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.182373037042545</v>
+        <v>1.196553924445357</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.156327877443073</v>
+        <v>1.176512826864016</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.001430357048275</v>
+        <v>1.104711550844658</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.287803583908642</v>
+        <v>1.013211518357779</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.03186743582434</v>
+        <v>1.054142740155968</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.002192705667257</v>
+        <v>0.9988264239219699</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.028693987418527</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>1.006028435371039</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.001133243865967</v>
+        <v>1.064537684188103</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.046947534155589</v>
+        <v>1.00306928047863</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>1.000345457449509</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>1.001852190114346</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>1</v>
@@ -4959,13 +4959,13 @@
         <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1.032675541730299</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1.031394013907156</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
@@ -4983,49 +4983,49 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>4.597432083016995</v>
+        <v>7.574017847779515</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.196553924445357</v>
+        <v>1.206869632841791</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.176512826864016</v>
+        <v>1.025116549432065</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.104711550844658</v>
+        <v>1.133846562152097</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.013211518357779</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.054142740155968</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>0.9988264239219699</v>
+        <v>1.038732856937727</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>1.141588353381399</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.028693987418527</v>
+        <v>1.001907536125266</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.006028435371039</v>
+        <v>1.000230248797276</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.064537684188103</v>
+        <v>1.001885271918783</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.00306928047863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000345457449509</v>
+        <v>1.000356684770014</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.001852190114346</v>
+        <v>1.032225150234663</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>1.000915274241052</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
@@ -5058,55 +5058,55 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>7.574017847779515</v>
+        <v>7.16281408319876</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.206869632841791</v>
+        <v>1.589434091114591</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.025116549432065</v>
+        <v>1.30571481502967</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.133846562152097</v>
+        <v>1.049572641733063</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.043020111390701</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.038732856937727</v>
+        <v>1.205760161791648</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.141588353381399</v>
+        <v>1.013844062175698</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.001907536125266</v>
+        <v>1.000249312890247</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000230248797276</v>
+        <v>1.000117558987202</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.001885271918783</v>
+        <v>1.001761036452919</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000185091380854</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.000356684770014</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.032225150234663</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.000915274241052</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>1.005509189176252</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>1</v>
@@ -5133,40 +5133,40 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>7.16281408319876</v>
+        <v>7.697706118470323</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.589434091114591</v>
+        <v>1.922431095304499</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.30571481502967</v>
+        <v>1.173628000819364</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.049572641733063</v>
+        <v>1.000552813038083</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.043020111390701</v>
+        <v>1.037116060800919</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>1.05731547056427</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.205760161791648</v>
+        <v>1.098990520730768</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.013844062175698</v>
+        <v>1.0530114559224</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000249312890247</v>
+        <v>1.001679569963963</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.000117558987202</v>
+        <v>1.016554781430028</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.001761036452919</v>
+        <v>1.028312191864608</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.000185091380854</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5175,13 +5175,13 @@
         <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>1.031314267749225</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1.005509189176252</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>1</v>
@@ -5208,40 +5208,40 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>7.697706118470323</v>
+        <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.922431095304499</v>
+        <v>1.441188082141694</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.173628000819364</v>
+        <v>1.067519703512068</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.000552813038083</v>
+        <v>1.035220419953365</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.037116060800919</v>
+        <v>1.003664169870631</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.05731547056427</v>
+        <v>1.027268176713055</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.098990520730768</v>
+        <v>1.09533042315404</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.0530114559224</v>
+        <v>1.001161919207601</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.001679569963963</v>
+        <v>1.00167233118838</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.016554781430028</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.028312191864608</v>
+        <v>1.000275258727036</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.000565317165559</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.031314267749225</v>
+        <v>1.036846819777425</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,49 +5283,49 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v/>
+        <v>3.860099902933894</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.441188082141694</v>
+        <v>1.140639405139219</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.067519703512068</v>
+        <v>1.00913339160856</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.035220419953365</v>
+        <v>1.038879702341573</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.003664169870631</v>
+        <v>1.352542204196834</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.027268176713055</v>
+        <v>1.007879804330739</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.09533042315404</v>
+        <v>1.029454502512536</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.001161919207601</v>
+        <v>0.9824442001690609</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.00167233118838</v>
+        <v>1.105277873462036</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>1.000360711056749</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000275258727036</v>
+        <v>1.000503038312295</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.000565317165559</v>
+        <v>1.002091581216455</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.000596111546229</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.036846819777425</v>
+        <v>1.002372079192866</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>3.860099902933894</v>
+        <v>1.279841653158667</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.140639405139219</v>
+        <v>1.140852108732176</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.00913339160856</v>
+        <v>2.938593642618172</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.038879702341573</v>
+        <v>8.958137586479847</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.352542204196834</v>
+        <v>1.271280549608212</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.007879804330739</v>
+        <v>1.048070975413204</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.029454502512536</v>
+        <v>1.004485285932403</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.9824442001690609</v>
+        <v>1.037242279311522</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.105277873462036</v>
+        <v>1.000759268490068</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.00036071105675</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.000503038312295</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.002091581216455</v>
+        <v>1.000039029088442</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000596111546229</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1.002372079192866</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,46 +5433,46 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.279841653158667</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.140852108732176</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>2.938593642618172</v>
+        <v>183.3989189860835</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>8.958137586479845</v>
+        <v>1.093627381402844</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.271280549608212</v>
+        <v>1.055045013344171</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.048070975413204</v>
+        <v>1.009124266532632</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.004485285932403</v>
+        <v>1.003965483131422</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.037242279311522</v>
+        <v>1.000884145369611</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.000759268490068</v>
+        <v>1.004734149603297</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>1.04791925057749</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.000246942029946</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.000039029088442</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>1.000964430706836</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>1</v>
@@ -5514,40 +5514,40 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>183.3989189860835</v>
+        <v>1.267484324375163</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.093627381402844</v>
+        <v>1.051438604017074</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.055045013344171</v>
+        <v>1.05678668540728</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.009124266532632</v>
+        <v>1.010770543145785</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.003965483131422</v>
+        <v>1.039954030981826</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.000884145369611</v>
+        <v>1.01140386511335</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.004734149603297</v>
+        <v>1.001152677235014</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.04791925057749</v>
+        <v>1.002729991227482</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.000246942029946</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.002722558666207</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.000964430706836</v>
+        <v>1.038504713508033</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,37 +5586,37 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1.345194539230278</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.267484324375163</v>
+        <v>1.032067610383686</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.051438604017074</v>
+        <v>1.011352232957571</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.05678668540728</v>
+        <v>1.101195942071213</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.010770543145785</v>
+        <v>1.04501688196924</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.039954030981826</v>
+        <v>1.004493997575568</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.01140386511335</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.001152677235014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.002729991227482</v>
+        <v>1.040420012515608</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.002722558666207</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v/>
+        <v>17.69240595453631</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.345194539230278</v>
+        <v>1.143686763741921</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.032067610383686</v>
+        <v>1.02290078992067</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.011352232957571</v>
+        <v>1.016141094989724</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.101195942071213</v>
+        <v>1.022281619469289</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.04501688196924</v>
+        <v>1.007538839173146</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.004493997575568</v>
+        <v>1.154231856441344</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.000067581619891</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>1.066678036773984</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.040420012515608</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000004902300914</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>17.69240595453631</v>
+        <v>6.661539000630738</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.143686763741921</v>
+        <v>1.442360091948219</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.02290078992067</v>
+        <v>1.060675904964483</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.016141094989724</v>
+        <v>1.007900814966292</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.022281619469289</v>
+        <v>1.151136516275391</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.007538839173146</v>
+        <v>1.075715234025403</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.154231856441344</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000067581619891</v>
+        <v>1.002286899280011</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.066678036773984</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.000004902300914</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>6.661539000630738</v>
+        <v>3.943376728669497</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.442360091948219</v>
+        <v>1.368827284026037</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.060675904964483</v>
+        <v>1.030049738687219</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.007900814966292</v>
+        <v>1.013260877944882</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.151136516275391</v>
+        <v>1.118887699462399</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.075715234025403</v>
+        <v>1.045680216607887</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000156523553896</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.002286899280011</v>
+        <v>1.000405486287431</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>1.00022923739018</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>1.002372189148525</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>3.943376728669497</v>
+        <v>5.680279809751619</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.368827284026037</v>
+        <v>1.109575753183651</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.030049738687219</v>
+        <v>1.063608280634242</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.013260877944882</v>
+        <v>1.175429963400573</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.118887699462399</v>
+        <v>1.006064330616857</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.045680216607887</v>
+        <v>1.093450529956609</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.000156523553896</v>
+        <v>1.055262561744221</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.000405486287431</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.00022923739018</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>5.680279809751619</v>
+        <v>4.925782017374259</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.109575753183651</v>
+        <v>1.254838471336082</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.063608280634242</v>
+        <v>1.081843221338379</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.175429963400573</v>
+        <v>1.013476387948283</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.006064330616857</v>
+        <v>1.106543508714009</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.093450529956609</v>
+        <v>1.045105660164043</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.055262561744221</v>
+        <v>1.001779391355282</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>1.000708227235327</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>4.925782017374259</v>
+        <v>9.608803814525603</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.254838471336082</v>
+        <v>1.742363303583629</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.081843221338379</v>
+        <v>1.196595691549491</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.013476387948283</v>
+        <v>1.008772735445499</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.106543508714009</v>
+        <v>1.008062568575431</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.045105660164043</v>
+        <v>1.069198283611201</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.001779391355282</v>
+        <v>1.005254516901699</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>9.608803814525603</v>
+        <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.742363303583629</v>
+        <v>1.078240787125167</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.196595691549491</v>
+        <v>1.092699525719755</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.008772735445499</v>
+        <v>1.008097833832402</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.008062568575431</v>
+        <v>1.003305825790596</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.069198283611201</v>
+        <v>1.000986728405634</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v/>
+        <v>5.208481920188925</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.078240787125167</v>
+        <v>1.277325674945881</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.092699525719755</v>
+        <v>1.01754066986866</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.008097833832402</v>
+        <v>1.007419991624692</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.003305825790596</v>
+        <v>1.003657296719901</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>5.208481920188925</v>
+        <v>10.91777649498058</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.277325674945881</v>
+        <v>1.11343416384024</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.01754066986866</v>
+        <v>1.02348848363803</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.007419991624692</v>
+        <v>1.002204263791268</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>10.91777649498058</v>
+        <v>13.35986617231091</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.11343416384024</v>
+        <v>1.244513504757562</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.02348848363803</v>
+        <v>1.035297293649187</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>13.35986617231091</v>
+        <v>8.049493167562723</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.244513504757562</v>
+        <v>1.144792730207487</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>8.049493167562723</v>
+        <v>5.479313662998885</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07543997947368938</v>
+        <v>0.07841525284919619</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.06745791023953242</v>
+        <v>0.08694727705032122</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.07217091472857817</v>
+        <v>0.0825265057445929</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.06267597275832607</v>
+        <v>0.09584116999855304</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.00554130118724666</v>
+        <v>0.005738756111499172</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.002546030568451971</v>
+        <v>0.06832809439109995</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.05969868787428495</v>
+        <v>0.06816931521245305</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.06031103143094006</v>
+        <v>0.08557973098203528</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.06708916119270651</v>
+        <v>0.08868688604592107</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.409128796946985</v>
+        <v>6.275001760197019</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.874188989301812</v>
+        <v>6.719167021777648</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>8.301732098802209</v>
+        <v>7.567322635302371</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>10.46794551216441</v>
+        <v>8.02983250697417</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>7.560814653516849</v>
+        <v>7.423208179525631</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>8.604780508053116</v>
+        <v>8.320647158502732</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>9.428884313913748</v>
+        <v>8.602986283608404</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>10.7757119449514</v>
+        <v>8.962891000957505</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>9.384838805483309</v>
+        <v>7.798577571138271</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4835045448859121</v>
+        <v>0.4920558496550004</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4637184238099037</v>
+        <v>0.5842132765898829</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.5991435994021546</v>
+        <v>0.6245046949334691</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.656088667756058</v>
+        <v>0.7695885423608188</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.04189675121608486</v>
+        <v>0.04259998130718335</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.02190803420832291</v>
+        <v>0.5685339644412123</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.5628920216590783</v>
+        <v>0.5864596837357112</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.6498943018027205</v>
+        <v>0.7670418006832481</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.6263244440270315</v>
+        <v>0.6894971512868489</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.296978553492776</v>
+        <v>1.282462480757269</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.256632764166835</v>
+        <v>1.24711671866773</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.237734142914797</v>
+        <v>1.220083859146486</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.208554698931863</v>
+        <v>1.164274345264617</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.318124902838646</v>
+        <v>1.304274722234402</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.283669121610788</v>
+        <v>1.272096088993846</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.285119317598094</v>
+        <v>1.266778360743328</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.211757781181228</v>
+        <v>1.167580132935097</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.22314442092333</v>
+        <v>1.192179102205551</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6270950252333132</v>
+        <v>0.6310431656196775</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5827237647073271</v>
+        <v>0.7285821445028975</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.741580489488912</v>
+        <v>0.7619480982495257</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.79291904233253</v>
+        <v>0.8960121962802933</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.05522515112595678</v>
+        <v>0.05556207878661727</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.02812266702841697</v>
+        <v>0.7232298326258325</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.723383410755926</v>
+        <v>0.7429144368047748</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7875144771547878</v>
+        <v>0.8955827676085226</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.7663909689696269</v>
+        <v>0.8235598780220021</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.145811815729992</v>
+        <v>1.145266399927418</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.170157003103373</v>
+        <v>1.071098398773271</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.066929136406002</v>
+        <v>1.061681601662087</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.037518270046975</v>
+        <v>1.024857660047774</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>9.86637883332499</v>
+        <v>9.865510348959022</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>16.27398943559694</v>
+        <v>1.077020961227414</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.079295978791426</v>
+        <v>1.074577480960584</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.044576226408815</v>
+        <v>1.025442149051959</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.052223703226488</v>
+        <v>1.043269630854931</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7185328894978275</v>
+        <v>0.7227125344880496</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.6818782941470412</v>
+        <v>0.7803831683518496</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7912138312259448</v>
+        <v>0.8089462773329376</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8226679930881509</v>
+        <v>0.9182849628540882</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5448722621363138</v>
+        <v>0.5481482632790491</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.4576679861212681</v>
+        <v>0.7789336895230159</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7807448063532977</v>
+        <v>0.7983191240709258</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8226189007886595</v>
+        <v>0.9183683178703849</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8066343951978912</v>
+        <v>0.8601548940849333</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.094023066098719</v>
+        <v>1.088297454868932</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.129240024524373</v>
+        <v>1.031841322348184</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.032583538573421</v>
+        <v>1.03004765615622</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.007969066151509</v>
+        <v>1.005721700970888</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.441563733858281</v>
+        <v>1.436573690795603</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.697087958750807</v>
+        <v>1.034093515193425</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.037742965032722</v>
+        <v>1.035900196007119</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.008096853634198</v>
+        <v>1.005907363082787</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.020276302362465</v>
+        <v>1.017884678563554</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7860915548611852</v>
+        <v>0.7865262118852199</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7700042616052427</v>
+        <v>0.8052316003704377</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8169943776155197</v>
+        <v>0.8332532169230922</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8292238887457999</v>
+        <v>0.9235391148176023</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7854680926810323</v>
+        <v>0.7874553736819836</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7767028283521353</v>
+        <v>0.8054902771014398</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8102124302789693</v>
+        <v>0.8269789371013039</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.82927952562507</v>
+        <v>0.923793452967774</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8230637075692626</v>
+        <v>0.8760761582031517</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.091982657768884</v>
+        <v>1.089426303624011</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.118841729570137</v>
+        <v>1.07879422406531</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.068746133163619</v>
+        <v>1.04405387762857</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.046041359498244</v>
+        <v>1.004711821605031</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.088623517282476</v>
+        <v>1.086400273925276</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.104427705294307</v>
+        <v>1.075353963004562</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.065666741572447</v>
+        <v>1.041086871646532</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.039303967693345</v>
+        <v>1.005008563695309</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.057393746330931</v>
+        <v>1.0243828496168</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8583983453269916</v>
+        <v>0.8568623437175107</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.861512899830786</v>
+        <v>0.8686791995144943</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8731595818930044</v>
+        <v>0.8699612521750343</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8674024839120767</v>
+        <v>0.9278906663718908</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8550790377675829</v>
+        <v>0.8554917336720379</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8578121224125466</v>
+        <v>0.8661871616426764</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8634164405568824</v>
+        <v>0.8609569145443706</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8618735013089904</v>
+        <v>0.9284203313182728</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8702715117892711</v>
+        <v>0.8979926741139419</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.032725039263294</v>
+        <v>1.033294516642967</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.037095159487418</v>
+        <v>1.035906482138636</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.056505847191517</v>
+        <v>1.054384796192925</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.067132733843241</v>
+        <v>1.038497684305428</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.035150282572373</v>
+        <v>1.034951765921842</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.040401617636912</v>
+        <v>1.038211496944627</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.056114793923048</v>
+        <v>1.055022775461796</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.069251491243951</v>
+        <v>1.038430224060293</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.061819290517379</v>
+        <v>1.046441240249176</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8864894648813639</v>
+        <v>0.8853911612811454</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.893470858250477</v>
+        <v>0.8998704136760663</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9224982038012595</v>
+        <v>0.9172739175703152</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9256335839995125</v>
+        <v>0.963612308315829</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8851353075668265</v>
+        <v>0.8853926804954138</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8924691197865664</v>
+        <v>0.8992854697232606</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9118668761885037</v>
+        <v>0.9083291535356263</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9215595265382832</v>
+        <v>0.9640997326729651</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9240632342932484</v>
+        <v>0.9398723058343454</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.042744395385112</v>
+        <v>1.041482838467989</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.038115429701366</v>
+        <v>1.029809740670204</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.026476573020544</v>
+        <v>1.028450816667646</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.016515541659003</v>
+        <v>1.020387697060707</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.04553090743348</v>
+        <v>1.043463014254918</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.040675381426109</v>
+        <v>1.032864047773686</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.035987388445052</v>
+        <v>1.036114141666074</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.019066158884466</v>
+        <v>1.020765490000401</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.021496057339773</v>
+        <v>1.024419256864176</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9243819210729893</v>
+        <v>0.9221196998055565</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9275258839383422</v>
+        <v>0.9266953173445395</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9469227948555239</v>
+        <v>0.9433711096331212</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9409209240170286</v>
+        <v>0.983258144141741</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9254363213217568</v>
+        <v>0.9238745151889862</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9287706416449085</v>
+        <v>0.9288396303624279</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9446825836720754</v>
+        <v>0.9411326812658367</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9391301268927559</v>
+        <v>0.9841197360311746</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9439123188018471</v>
+        <v>0.9629017359488204</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.016323933958228</v>
+        <v>1.016429399486329</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.009507528932378</v>
+        <v>1.008425244253232</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.00273385634831</v>
+        <v>1.000540395289886</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.00081195049405</v>
+        <v>1.000388832949295</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.015358940119867</v>
+        <v>1.015315529692081</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.008562657871382</v>
+        <v>1.007468004959684</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.002360638716781</v>
+        <v>1.000578032403777</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.000897461855814</v>
+        <v>1.00037123784092</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.00177290342118</v>
+        <v>1.000464614119591</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9394714705047649</v>
+        <v>0.9372695727278761</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9363443631154152</v>
+        <v>0.9345029517414938</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9495115457495992</v>
+        <v>0.9438809029373814</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.941684905226146</v>
+        <v>0.983640467305846</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9396500423656875</v>
+        <v>0.9380241427581203</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9367233868902973</v>
+        <v>0.9357762093287254</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9469126379541601</v>
+        <v>0.9416766864518618</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9399729603592881</v>
+        <v>0.984485078517185</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.945582030369208</v>
+        <v>0.9633506188616036</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.014814811885037</v>
+        <v>1.015082454270755</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.016291729052612</v>
+        <v>1.016667192297867</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.008832045633911</v>
+        <v>1.008127142449136</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.017795165394945</v>
+        <v>1.000089487940172</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>1.014202265369397</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.015361666093536</v>
+        <v>1.015202704749764</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.012132350167079</v>
+        <v>1.011343325233196</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.022302424721388</v>
+        <v>1.000076412463393</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.013313605514428</v>
+        <v>1.004108315194654</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9533895636116516</v>
+        <v>0.9514058981979143</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9515990317792318</v>
+        <v>0.9500784921410932</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.957897675051585</v>
+        <v>0.9515519574905729</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9584423438645687</v>
+        <v>0.9837284912651355</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9529952016217303</v>
+        <v>0.9513462105564726</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9511130187817125</v>
+        <v>0.9500025387510035</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9584009136554529</v>
+        <v>0.9523584313708041</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9609366365478417</v>
+        <v>0.9845603054472087</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9581699320542463</v>
+        <v>0.9673727361886331</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.007440908770826</v>
+        <v>1.00765013009661</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.008713635184675</v>
+        <v>1.008458983112419</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.015405168824706</v>
+        <v>1.016469004841182</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.017175470513852</v>
+        <v>1.000988043301871</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.008168642140205</v>
+        <v>1.008338084222243</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.009530082496906</v>
+        <v>1.009225395311697</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.01517820905343</v>
+        <v>1.015573573911517</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.013473337505203</v>
+        <v>1.000790729716175</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.016290319669279</v>
+        <v>1.008728524071527</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9604836483775437</v>
+        <v>0.9586842770938104</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9598909185842465</v>
+        <v>0.9581151900615875</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9726542504525477</v>
+        <v>0.9672230712851215</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9749040420808418</v>
+        <v>0.9847004576117897</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9607798783851111</v>
+        <v>0.9592786153846041</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9601772043145838</v>
+        <v>0.958766687718097</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9729477230799137</v>
+        <v>0.9671900557920141</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9738836601731651</v>
+        <v>0.9853388265380923</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9737778468030562</v>
+        <v>0.9758835188029962</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.007799915682325</v>
+        <v>1.008004985912272</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.008422229139138</v>
+        <v>1.008603705744552</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000160969311418</v>
+        <v>1.000040138209381</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000001149732086</v>
+        <v>1.000001321328085</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.007589197666198</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.008221630805048</v>
+        <v>1.008127193816217</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000125813773859</v>
+        <v>1.000041974055143</v>
       </c>
       <c r="U12" s="22" t="n">
         <v>1.000001634100305</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000081059521752</v>
+        <v>1.000020729768733</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9679753398491405</v>
+        <v>0.966358531226263</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9679753398491405</v>
+        <v>0.966358531226263</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9728108179374912</v>
+        <v>0.9672618938872752</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9749051629592997</v>
+        <v>0.9847017587241597</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.968071426795881</v>
+        <v>0.9665587704137145</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.968071426795881</v>
+        <v>0.9665587704137145</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9730701333047219</v>
+        <v>0.9672306526807501</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9738852515967509</v>
+        <v>0.9853404366805689</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9738568644420594</v>
+        <v>0.9759039178658955</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.012003836649161</v>
+        <v>1.004710068108883</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.012003836649161</v>
+        <v>1.004710068108883</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.001002941660603</v>
+        <v>1.000984270098966</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000969856120112</v>
+        <v>1.001054391551425</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.012722289444916</v>
+        <v>1.004635032679311</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.012722289444916</v>
+        <v>1.004635032679311</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.000903081022777</v>
+        <v>1.000808861495184</v>
       </c>
       <c r="U13" s="22" t="n">
         <v>1.000907519555402</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000986398890357</v>
+        <v>1.001019330825195</v>
       </c>
     </row>
     <row r="14">
@@ -7471,53 +7471,53 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9795947577091052</v>
+        <v>0.9709101457259391</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9795947577091052</v>
+        <v>0.9709101457259391</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9737864904346858</v>
+        <v>0.9682139408472976</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9758506806981245</v>
+        <v>0.9857400199392311</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.980387511690931</v>
+        <v>0.9710388019010567</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.980387511690931</v>
+        <v>0.9710388019010567</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9739488944759406</v>
+        <v>0.968013008312665</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9747690715072928</v>
+        <v>0.9862346523955851</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9748174928293803</v>
+        <v>0.9768983799107297</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000141742144817</v>
+        <v>1.00013698843018</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000141742144817</v>
+        <v>1.00013698843018</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000131056034883</v>
+        <v>1.000138122651385</v>
       </c>
       <c r="Q14" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000124402870309</v>
+        <v>1.000118023069614</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000124402870309</v>
+        <v>1.000118023069614</v>
       </c>
       <c r="T14" s="22" t="n">
         <v>1.000099351924371</v>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000065528017442</v>
+        <v>1.000069061325692</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9797336075711148</v>
+        <v>0.9710431491826478</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9797336075711148</v>
+        <v>0.9710431491826478</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9739141110309447</v>
+        <v>0.9683476731239152</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9758506806981245</v>
+        <v>0.9857400199392311</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9805094747114007</v>
+        <v>0.9711534068811716</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9805094747114007</v>
+        <v>0.9711534068811716</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9740456581728462</v>
+        <v>0.9681091822678576</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9747690715072928</v>
+        <v>0.9862346523955851</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.974881434132614</v>
+        <v>0.9769664462877615</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.0034981514078</v>
+        <v>1.006938029685039</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.0034981514078</v>
+        <v>1.006938029685039</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000114610578053</v>
+        <v>1.005692027342365</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.00023156731133</v>
+        <v>1.013408281143013</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.003504177105584</v>
+        <v>1.007354648456388</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.003504177105584</v>
+        <v>1.007354648456388</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000160738451139</v>
+        <v>1.006578190702478</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000321476902279</v>
+        <v>1.013156381404956</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000173088944692</v>
+        <v>1.009550154242689</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9831608640697083</v>
+        <v>0.9777802753771302</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9831608640697083</v>
+        <v>0.9777802753771302</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9740257318901839</v>
+        <v>0.973859534556252</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9760766558165134</v>
+        <v>0.9989570992604956</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.983945353564493</v>
+        <v>0.9782958987860058</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.983945353564493</v>
+        <v>0.9782958987860058</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9742022247632798</v>
+        <v>0.9744775890896358</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.975082437248838</v>
+        <v>0.9992099316372858</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9750501153743472</v>
+        <v>0.9862486751699359</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.002680722358021</v>
+        <v>1.0084849248026</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.002680722358021</v>
+        <v>1.0084849248026</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.011973075447409</v>
+        <v>1.012438690122468</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.012044184706856</v>
+        <v>1.001043989516944</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.002019370423703</v>
+        <v>1.007938715662285</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.002019370423703</v>
+        <v>1.007938715662285</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.011908073493428</v>
+        <v>1.011755527786586</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.013072966323431</v>
+        <v>1.000790693064289</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.012008630077132</v>
+        <v>1.006741339819706</v>
       </c>
     </row>
     <row r="17">
@@ -7663,31 +7663,31 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9857964453795515</v>
+        <v>0.9860766674871709</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9857964453795515</v>
+        <v>0.9860766674871709</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9856878154658224</v>
+        <v>0.9859730715294078</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.987832703347218</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9859323037100213</v>
+        <v>0.9860623117600478</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9859323037100213</v>
+        <v>0.9860623117600478</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9858030964532221</v>
+        <v>0.9859330874655844</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9878296571135606</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9867590938386985</v>
+        <v>0.9929369996644566</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -7727,47 +7727,47 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9857964453795515</v>
+        <v>0.9860766674871709</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9857964453795515</v>
+        <v>0.9860766674871709</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9856878154658224</v>
+        <v>0.9859730715294078</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.987832703347218</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9859323037100213</v>
+        <v>0.9860623117600478</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9859323037100213</v>
+        <v>0.9860623117600478</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9858030964532221</v>
+        <v>0.9859330874655844</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9878296571135606</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9867590938386985</v>
+        <v>0.9929369996644566</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.00073065424886</v>
+        <v>1.000690403355862</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.00073065424886</v>
+        <v>1.000690403355862</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.000840941992029</v>
+        <v>1.000795545660204</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1.001629234074823</v>
+        <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
         <v>1.000787027025179</v>
@@ -7779,10 +7779,10 @@
         <v>1.000918198196042</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1.001836396392084</v>
+        <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.001235088033426</v>
+        <v>1.000397772830102</v>
       </c>
     </row>
     <row r="19">
@@ -7791,44 +7791,44 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9865167217408795</v>
+        <v>0.9867574581275412</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9865167217408795</v>
+        <v>0.9867574581275412</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9865167217408795</v>
+        <v>0.9867574581275412</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9894421140477356</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9867082590780379</v>
+        <v>0.9868383694479134</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9867082590780379</v>
+        <v>0.9868383694479134</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9867082590780379</v>
+        <v>0.9868383694479134</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9896437039318778</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9879772523835708</v>
+        <v>0.993334595615441</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.005344067730894</v>
+        <v>1.005255732575373</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.005344067730894</v>
+        <v>1.005255732575373</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.005344067730894</v>
+        <v>1.005255732575373</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.002672033865447</v>
+        <v>1.002627866287687</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9917887339195222</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9917887339195222</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9917887339195222</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9894421140477356</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9920817968938939</v>
+        <v>0.9922126158349061</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9920817968938939</v>
+        <v>0.9922126158349061</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9920817968938939</v>
+        <v>0.9922126158349061</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9896437039318778</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9906140342856975</v>
+        <v>0.9959555036646676</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.000125413657486</v>
+        <v>1</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.000125413657486</v>
+        <v>1</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.000125413657486</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.0001318630595</v>
+        <v>1</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.0001318630595</v>
+        <v>1</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.0001318630595</v>
+        <v>1</v>
       </c>
       <c r="U20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.000062706828743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7919,16 +7919,16 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9919131177720962</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9919131177720962</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9919131177720962</v>
+        <v>0.9919435914442148</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9894421140477356</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
         <v>0.9922126158349061</v>
@@ -7940,26 +7940,26 @@
         <v>0.9922126158349061</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9896437039318778</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9906760750808642</v>
+        <v>0.9959555036646676</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.008152813067003</v>
+        <v>1.008121841428559</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.008152813067003</v>
+        <v>1.008121841428559</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.008152813067003</v>
+        <v>1.008121841428559</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.010670544342481</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
         <v>1.007848503476789</v>
@@ -7971,10 +7971,10 @@
         <v>1.007848503476789</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.010464671302385</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.009411678704742</v>
+        <v>1.004060920714279</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>46305.79000000001</v>
+        <v>52565.13</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>61355.87083333333</v>
+        <v>60729.9575</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>3098.94</v>
+        <v>2603.49</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>24655.88</v>
+        <v>25823.28</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>35055.64</v>
+        <v>30532.75</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>36932.36</v>
+        <v>35305.87</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>40699.65</v>
+        <v>35356.37</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>42567.72</v>
+        <v>45532.06</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>42761.83</v>
+        <v>46983.05</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>44489.78</v>
+        <v>47086.07</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>44552.19</v>
+        <v>47086.07</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>44552.19</v>
+        <v>47086.07</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>44552.19</v>
+        <v>47086.07</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>44552.19</v>
+        <v>47139.43</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>48875.85000000001</v>
+        <v>49352.51</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>48879.28000000001</v>
+        <v>49352.51</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>48879.28000000001</v>
+        <v>49352.51</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>49352.51</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>49352.51</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>49352.51</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>46275.28000000001</v>
+        <v>50965.13</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>46305.79000000001</v>
+        <v>50965.13</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>46305.79000000001</v>
+        <v>52565.13</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>46305.79000000001</v>
+        <v>52565.13</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>46305.79000000001</v>
+        <v>52565.13</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>46305.79000000001</v>
+        <v>52565.13</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>60729.9575</v>
+        <v>60206.21833333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>2603.49</v>
+        <v>5518.87</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>25823.28</v>
+        <v>25372.63</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>30532.75</v>
+        <v>30359.72</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>35305.87</v>
+        <v>35718.6</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>35356.37</v>
+        <v>39458.75</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>45532.06</v>
+        <v>39980.06</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>46983.05</v>
+        <v>42144.69</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>47086.07</v>
+        <v>42095.23</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>47086.07</v>
+        <v>42095.23</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>47086.07</v>
+        <v>43303.10999999999</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>47086.07</v>
+        <v>43564.16</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>47139.43</v>
+        <v>46375.69</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>49352.51</v>
+        <v>46518.02999999999</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>49352.51</v>
+        <v>46534.09999999999</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>50965.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>50965.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>60206.21833333333</v>
+        <v>59439.09166666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>5518.87</v>
+        <v>4004.98</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>25372.63</v>
+        <v>30333.79</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>30359.72</v>
+        <v>36608.93</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>35718.6</v>
+        <v>37528.42</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>39458.75</v>
+        <v>42551.47</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>39980.06</v>
+        <v>42551.47</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>42144.69</v>
+        <v>42551.47</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>42095.23</v>
+        <v>44199.61</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>42095.23</v>
+        <v>50457.76</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>43303.10999999999</v>
+        <v>50554.01</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>43564.16</v>
+        <v>50565.65</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>46375.69</v>
+        <v>50660.98</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>46518.02999999999</v>
+        <v>50660.98</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>46534.09999999999</v>
+        <v>50679.05</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52312.19</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>59439.09166666667</v>
+        <v>58651.46416666666</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>4004.98</v>
+        <v>2346.91</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>30333.79</v>
+        <v>16810.48</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>36608.93</v>
+        <v>26719.15</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>37528.42</v>
+        <v>34887.59</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>42551.47</v>
+        <v>36617.06</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>42551.47</v>
+        <v>38192.33</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>42551.47</v>
+        <v>38192.33</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>44199.61</v>
+        <v>46050.79</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>50457.76</v>
+        <v>46688.32</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>50554.01</v>
+        <v>46699.96</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>50565.65</v>
+        <v>46705.45</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>50660.98</v>
+        <v>46787.7</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>50660.98</v>
+        <v>46796.36</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>50679.05</v>
+        <v>46796.36</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>52312.19</v>
+        <v>46796.36</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>52360.07</v>
+        <v>46796.36</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>52360.07</v>
+        <v>46796.36</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>58651.46416666666</v>
+        <v>57459.95916666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2346.91</v>
+        <v>2523.67</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>16810.48</v>
+        <v>19426.47</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>26719.15</v>
+        <v>37346.05</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>34887.59</v>
+        <v>43830.37</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>36617.06</v>
+        <v>43854.60000000001</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>38192.33</v>
+        <v>45482.31</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>38192.33</v>
+        <v>48089.15000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>46050.79</v>
+        <v>52849.52000000001</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>46688.32</v>
+        <v>55651.15000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>46699.96</v>
+        <v>55744.62000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>46705.45</v>
+        <v>56667.46000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>46787.7</v>
+        <v>58271.84</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>46796.36</v>
+        <v>58271.84</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>46796.36</v>
+        <v>58271.84</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>46796.36</v>
+        <v>58271.84</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>46796.36</v>
+        <v>60096.58</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>46796.36</v>
+        <v>60096.58</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>57459.95916666667</v>
+        <v>56540.92916666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>2523.67</v>
+        <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>19426.47</v>
+        <v>27432.11</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>37346.05</v>
+        <v>39534.83</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>43830.37</v>
+        <v>42204.21</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>43854.60000000001</v>
+        <v>43690.66</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>45482.31</v>
+        <v>43850.74999999999</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>48089.15000000001</v>
+        <v>45046.48</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>52849.52000000001</v>
+        <v>49340.78</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>55651.15000000001</v>
+        <v>49398.11</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>55744.62000000001</v>
+        <v>49480.72</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>56667.46000000001</v>
+        <v>49480.72</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>58271.84</v>
+        <v>49494.34</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>58271.84</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>58271.84</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>58271.84</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>56540.92916666667</v>
+        <v>55091.66583333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v/>
+        <v>9447.17</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>27432.11</v>
+        <v>36467.02</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>39534.83</v>
+        <v>41595.71999999999</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>42204.21</v>
+        <v>41975.63</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>43690.66</v>
+        <v>43607.63</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>43850.74999999999</v>
+        <v>58981.16</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>45046.48</v>
+        <v>59445.92</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>49340.78</v>
+        <v>61196.87</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>49398.11</v>
+        <v>60122.50999999999</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>49480.72</v>
+        <v>66452.07999999999</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>49480.72</v>
+        <v>66476.04999999999</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>49494.34</v>
+        <v>66509.48999999999</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>66648.59999999999</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>66688.32999999999</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>66688.32999999999</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>66846.52</v>
+        <v>48427.31</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>55091.66583333333</v>
+        <v>54461.23416666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>9447.17</v>
+        <v>906.87</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>36467.02</v>
+        <v>1160.65</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>41595.71999999999</v>
+        <v>1324.13</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>41975.63</v>
+        <v>3891.08</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>43607.63</v>
+        <v>34856.83</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>58981.16</v>
+        <v>44312.81</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>59445.92</v>
+        <v>46442.97</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>61196.87</v>
+        <v>46651.28</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>60122.50999999999</v>
+        <v>48388.68</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>66452.08</v>
+        <v>48425.42</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>66476.05</v>
+        <v>48425.42</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>66509.49000000001</v>
+        <v>48425.42</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>66648.60000000001</v>
+        <v>48427.31</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>66688.33</v>
+        <v>48427.31</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>66688.33</v>
+        <v>48427.31</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>66846.52</v>
+        <v>48427.31</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>66846.52</v>
+        <v>48427.31</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>54461.23416666667</v>
+        <v>52255.39000000001</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>906.87</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1160.65</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1324.13</v>
+        <v>160.96</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>3891.08</v>
+        <v>29519.89</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>34856.83</v>
+        <v>32283.76</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>44312.81</v>
+        <v>34060.82</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>46442.97</v>
+        <v>34371.6</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>46651.28</v>
+        <v>34507.9</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>48388.68</v>
+        <v>34538.41</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>48425.42</v>
+        <v>34701.92000000001</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>48425.42</v>
+        <v>36364.81</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>48425.42</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>48427.31</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>48427.31</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>36408.87000000001</v>
+        <v>45599.61000000001</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>52255.39000000001</v>
+        <v>50900.79749999999</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9754,43 +9754,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>160.96</v>
+        <v>29132.81</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>29519.89</v>
+        <v>36925.38</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>32283.76</v>
+        <v>38824.77</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>34060.82</v>
+        <v>41029.50000000001</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>34371.6</v>
+        <v>41471.41000000001</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>34507.9</v>
+        <v>43128.36000000001</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>34538.41</v>
+        <v>43620.19000000001</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>34701.92000000001</v>
+        <v>43670.47000000001</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>36364.81</v>
+        <v>43789.69000000001</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>36373.79000000001</v>
+        <v>43789.69000000001</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>36373.79000000001</v>
+        <v>43908.91000000001</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>36373.79000000001</v>
+        <v>43908.91000000001</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>36408.87000000001</v>
+        <v>45599.61000000001</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>43908.91000000001</v>
+        <v>42761.96999999999</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>50900.79749999999</v>
+        <v>49854.32166666666</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>25323.17</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>29132.81</v>
+        <v>34064.59</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>36925.38</v>
+        <v>35156.96</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>38824.77</v>
+        <v>35556.07</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>41029.50000000001</v>
+        <v>39154.2</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>41471.41000000001</v>
+        <v>40916.8</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>43128.36000000001</v>
+        <v>41100.67999999999</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>43620.19000000001</v>
+        <v>41100.67999999999</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>43670.47000000001</v>
+        <v>41100.67999999999</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>43789.69000000001</v>
+        <v>42761.96999999999</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>43789.69000000001</v>
+        <v>42761.96999999999</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>43908.91000000001</v>
+        <v>42761.96999999999</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>43908.91000000001</v>
+        <v>42761.96999999999</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>42761.97</v>
+        <v>26518.29</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>49854.32166666666</v>
+        <v>49175.245</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v/>
+        <v>994.2</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>25323.17</v>
+        <v>17589.79</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>34064.59</v>
+        <v>20117.21</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>35156.96000000001</v>
+        <v>20577.91</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>35556.07000000001</v>
+        <v>20910.06</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>39154.2</v>
+        <v>21375.97</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>40916.8</v>
+        <v>21537.12</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>41100.68</v>
+        <v>24858.83</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>41100.68</v>
+        <v>24860.51</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>41100.68</v>
+        <v>26518.16</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>42761.97</v>
+        <v>26518.16</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>42761.97</v>
+        <v>26518.29</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>42761.97</v>
+        <v>26518.29</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>26518.29</v>
+        <v>29105.73</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>49175.245</v>
+        <v>48059.1575</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>994.2</v>
+        <v>2283.04</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>17589.79</v>
+        <v>15208.56</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>20117.21</v>
+        <v>21936.22</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>20577.91</v>
+        <v>23267.22</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>20910.06</v>
+        <v>23451.05</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>21375.97</v>
+        <v>26995.36</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>21537.12</v>
+        <v>29039.32</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>24858.83</v>
+        <v>29039.32</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>24860.51</v>
+        <v>29105.73</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>26518.16</v>
+        <v>29105.73</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>26518.16</v>
+        <v>29105.73</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>26518.29</v>
+        <v>29105.73</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>29105.73</v>
+        <v>39800.13</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>48059.1575</v>
+        <v>46286.77583333334</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>2283.04</v>
+        <v>6019.08</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>15208.56</v>
+        <v>23735.5</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>21936.22</v>
+        <v>32489.8</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>23267.22</v>
+        <v>33466.11</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>23451.05</v>
+        <v>33909.9</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>26995.36</v>
+        <v>37941.37</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>29039.32</v>
+        <v>39674.54</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>29039.32</v>
+        <v>39680.75</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>29105.73</v>
+        <v>39696.84</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>29105.73</v>
+        <v>39705.94</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>29105.73</v>
+        <v>39800.13</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>39705.94</v>
+        <v>32887.11</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>46286.77583333334</v>
+        <v>45773.54583333334</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>6019.08</v>
+        <v>3595.3</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>23735.5</v>
+        <v>20422.31</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>32489.8</v>
+        <v>22660.1</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>33466.11</v>
+        <v>24101.47</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>33909.9</v>
+        <v>28329.59</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>37941.37</v>
+        <v>28501.39</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>39674.54</v>
+        <v>31164.86</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>39680.75</v>
+        <v>32887.11</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>39696.84</v>
+        <v>32887.11</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>39705.94</v>
+        <v>32887.11</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>32887.11</v>
+        <v>37994.93</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>45773.54583333334</v>
+        <v>44920.35</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>3595.3</v>
+        <v>4835.889999999999</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>20422.31</v>
+        <v>23820.54</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>22660.1</v>
+        <v>29890.93</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>24101.47</v>
+        <v>32337.3</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>28329.59</v>
+        <v>32773.09</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>28501.39</v>
+        <v>36264.85</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>31164.86</v>
+        <v>37900.6</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>32887.11</v>
+        <v>37968.04</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>32887.11</v>
+        <v>37994.93</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>37968.04</v>
+        <v>25348.9</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>44920.35</v>
+        <v>43901.69</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>4835.889999999999</v>
+        <v>1157.68</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>23820.54</v>
+        <v>11123.92</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>29890.93</v>
+        <v>19381.91</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>32337.3</v>
+        <v>23192.31</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>32773.09</v>
+        <v>23395.77</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>36264.85</v>
+        <v>23584.4</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>37900.6</v>
+        <v>25216.4</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>37968.04</v>
+        <v>25348.9</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>25216.4</v>
+        <v>25716.31</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>43901.69</v>
+        <v>43909.92000000001</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>1157.68</v>
+        <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>11123.92</v>
+        <v>21558.96</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>19381.91</v>
+        <v>23245.75</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>23192.31</v>
+        <v>25400.62</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>23395.77</v>
+        <v>25606.31</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>23584.4</v>
+        <v>25690.96</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>25216.4</v>
+        <v>25716.31</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>25690.96</v>
+        <v>40346.11</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>43909.92000000001</v>
+        <v>41547.08</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v/>
+        <v>5894.42</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>21558.96</v>
+        <v>30700.98</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>23245.75</v>
+        <v>39215.15</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>25400.62</v>
+        <v>39903.01</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>25606.31</v>
+        <v>40199.09</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>25690.96</v>
+        <v>40346.11</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>40199.09</v>
+        <v>36505.15</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>41547.08</v>
+        <v>40847.31416666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>5894.42</v>
+        <v>2927.63</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>30700.98</v>
+        <v>31963.21</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>39215.15</v>
+        <v>35588.93</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>39903.01</v>
+        <v>36424.86</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>40199.09</v>
+        <v>36505.15</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>36424.86</v>
+        <v>33287.8</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>40847.31416666667</v>
+        <v>39756.25583333334</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>2927.63</v>
+        <v>1933.83</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>31963.21</v>
+        <v>25835.71</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>35588.93</v>
+        <v>32152.89</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>36424.86</v>
+        <v>33287.8</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>32152.89</v>
+        <v>26326.89</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>39756.25583333334</v>
+        <v>38551.04583333333</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>110</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>1933.83</v>
+        <v>2856.96</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>25835.71</v>
+        <v>22997.08</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>32152.89</v>
+        <v>26326.89</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>22997.08</v>
+        <v>22264.15</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>38551.04583333333</v>
+        <v>36219.39166666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>85</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>2856.96</v>
+        <v>4063.31</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>22997.08</v>
+        <v>22264.15</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>4063.31</v>
+        <v>3418.49</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>36219.39166666667</v>
+        <v>35667.90166666666</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>85</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>4063.31</v>
+        <v>3418.49</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
